--- a/data/tle/2019-10-17_ALL.xlsx
+++ b/data/tle/2019-10-17_ALL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrcunning/Projects/bsrte/data/tle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947EEC3F-2E4E-B145-89B5-C3B9361FC166}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6963254B-A740-984E-9F55-ECB3D07534FC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="23000" windowHeight="17240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -935,8 +935,8 @@
   <dimension ref="A1:I571"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <pane ySplit="1" topLeftCell="A564" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E282" sqref="E282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4432,6 +4432,9 @@
       <c r="D152">
         <v>53</v>
       </c>
+      <c r="E152">
+        <v>1</v>
+      </c>
       <c r="F152" t="s">
         <v>59</v>
       </c>
@@ -4452,6 +4455,9 @@
       <c r="D153">
         <v>53</v>
       </c>
+      <c r="E153">
+        <v>2</v>
+      </c>
       <c r="F153" t="s">
         <v>60</v>
       </c>
@@ -4472,6 +4478,9 @@
       <c r="D154">
         <v>53</v>
       </c>
+      <c r="E154">
+        <v>3</v>
+      </c>
       <c r="F154" t="s">
         <v>61</v>
       </c>
@@ -4492,6 +4501,9 @@
       <c r="D155">
         <v>53</v>
       </c>
+      <c r="E155">
+        <v>4</v>
+      </c>
       <c r="F155" t="s">
         <v>33</v>
       </c>
@@ -4512,6 +4524,9 @@
       <c r="D156">
         <v>53</v>
       </c>
+      <c r="E156">
+        <v>5</v>
+      </c>
       <c r="F156" t="s">
         <v>62</v>
       </c>
@@ -7232,6 +7247,9 @@
       <c r="D277">
         <v>49</v>
       </c>
+      <c r="E277">
+        <v>1</v>
+      </c>
       <c r="F277" t="s">
         <v>87</v>
       </c>
@@ -7249,6 +7267,9 @@
       <c r="D278">
         <v>49</v>
       </c>
+      <c r="E278">
+        <v>2</v>
+      </c>
       <c r="F278" t="s">
         <v>89</v>
       </c>
@@ -7266,6 +7287,9 @@
       <c r="D279">
         <v>49</v>
       </c>
+      <c r="E279">
+        <v>3</v>
+      </c>
       <c r="F279" t="s">
         <v>87</v>
       </c>
@@ -7283,6 +7307,9 @@
       <c r="D280">
         <v>49</v>
       </c>
+      <c r="E280">
+        <v>4</v>
+      </c>
       <c r="F280" t="s">
         <v>28</v>
       </c>
@@ -7299,6 +7326,9 @@
       </c>
       <c r="D281">
         <v>49</v>
+      </c>
+      <c r="E281">
+        <v>5</v>
       </c>
       <c r="F281" t="s">
         <v>90</v>

--- a/data/tle/2019-10-17_ALL.xlsx
+++ b/data/tle/2019-10-17_ALL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrcunning/Projects/bsrte/data/tle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB37A29-CEAC-684E-9D1A-46DE48FE8228}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5494EDE9-90E0-A542-8301-19D38E20419D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="23000" windowHeight="17240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,9 +87,6 @@
     <t>10, 5</t>
   </si>
   <si>
-    <t>1, 2, 4</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -523,6 +520,9 @@
   </si>
   <si>
     <t>frag_id</t>
+  </si>
+  <si>
+    <t>10, 2, 4</t>
   </si>
 </sst>
 </file>
@@ -926,8 +926,8 @@
   <dimension ref="A1:H571"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1:G1048576"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -942,22 +942,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -965,7 +965,7 @@
         <v>43750</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C2">
         <v>137</v>
@@ -985,7 +985,7 @@
         <v>43750</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C3">
         <v>137</v>
@@ -1005,7 +1005,7 @@
         <v>43750</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C4">
         <v>137</v>
@@ -1025,7 +1025,7 @@
         <v>43750</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C5">
         <v>137</v>
@@ -1045,7 +1045,7 @@
         <v>43750</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C6">
         <v>137</v>
@@ -1065,7 +1065,7 @@
         <v>43750</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C7">
         <v>137</v>
@@ -1085,7 +1085,7 @@
         <v>43750</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C8">
         <v>137</v>
@@ -1105,7 +1105,7 @@
         <v>43750</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C9">
         <v>137</v>
@@ -1125,7 +1125,7 @@
         <v>43750</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C10">
         <v>137</v>
@@ -1145,7 +1145,7 @@
         <v>43750</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C11">
         <v>137</v>
@@ -1165,7 +1165,7 @@
         <v>43750</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C12">
         <v>137</v>
@@ -1185,7 +1185,7 @@
         <v>43750</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C13">
         <v>137</v>
@@ -1205,7 +1205,7 @@
         <v>43750</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C14">
         <v>137</v>
@@ -1225,7 +1225,7 @@
         <v>43750</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C15">
         <v>137</v>
@@ -1245,7 +1245,7 @@
         <v>43750</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C16">
         <v>137</v>
@@ -1265,13 +1265,13 @@
         <v>43750</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C17">
         <v>137</v>
       </c>
       <c r="D17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1285,13 +1285,13 @@
         <v>43750</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C18">
         <v>137</v>
       </c>
       <c r="D18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1305,13 +1305,13 @@
         <v>43750</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C19">
         <v>137</v>
       </c>
       <c r="D19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1325,13 +1325,13 @@
         <v>43750</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C20">
         <v>137</v>
       </c>
       <c r="D20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E20">
         <v>4</v>
@@ -1345,13 +1345,13 @@
         <v>43750</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C21">
         <v>137</v>
       </c>
       <c r="D21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E21">
         <v>5</v>
@@ -1365,7 +1365,7 @@
         <v>43750</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C22">
         <v>137</v>
@@ -1385,7 +1385,7 @@
         <v>43750</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C23">
         <v>137</v>
@@ -1405,7 +1405,7 @@
         <v>43750</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C24">
         <v>137</v>
@@ -1425,7 +1425,7 @@
         <v>43750</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C25">
         <v>137</v>
@@ -1445,7 +1445,7 @@
         <v>43750</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C26">
         <v>137</v>
@@ -1465,7 +1465,7 @@
         <v>43750</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C27">
         <v>137</v>
@@ -1477,7 +1477,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1485,7 +1485,7 @@
         <v>43750</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C28">
         <v>137</v>
@@ -1505,7 +1505,7 @@
         <v>43750</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C29">
         <v>137</v>
@@ -1525,7 +1525,7 @@
         <v>43750</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C30">
         <v>137</v>
@@ -1537,7 +1537,7 @@
         <v>4</v>
       </c>
       <c r="F30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1545,7 +1545,7 @@
         <v>43750</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C31">
         <v>137</v>
@@ -1565,7 +1565,7 @@
         <v>43750</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C32">
         <v>137</v>
@@ -1585,7 +1585,7 @@
         <v>43750</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C33">
         <v>137</v>
@@ -1605,7 +1605,7 @@
         <v>43750</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C34">
         <v>137</v>
@@ -1625,7 +1625,7 @@
         <v>43750</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C35">
         <v>137</v>
@@ -1645,7 +1645,7 @@
         <v>43750</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C36">
         <v>137</v>
@@ -1665,7 +1665,7 @@
         <v>43750</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C37">
         <v>137</v>
@@ -1685,7 +1685,7 @@
         <v>43750</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C38">
         <v>137</v>
@@ -1705,7 +1705,7 @@
         <v>43750</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C39">
         <v>137</v>
@@ -1725,7 +1725,7 @@
         <v>43750</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C40">
         <v>137</v>
@@ -1745,7 +1745,7 @@
         <v>43750</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C41">
         <v>137</v>
@@ -1765,7 +1765,7 @@
         <v>43750</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C42">
         <v>137</v>
@@ -1785,7 +1785,7 @@
         <v>43750</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C43">
         <v>137</v>
@@ -1805,7 +1805,7 @@
         <v>43750</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C44">
         <v>137</v>
@@ -1825,7 +1825,7 @@
         <v>43750</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C45">
         <v>137</v>
@@ -1845,7 +1845,7 @@
         <v>43750</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C46">
         <v>137</v>
@@ -1865,7 +1865,7 @@
         <v>43750</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C47">
         <v>138</v>
@@ -1885,7 +1885,7 @@
         <v>43750</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C48">
         <v>138</v>
@@ -1905,7 +1905,7 @@
         <v>43750</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C49">
         <v>138</v>
@@ -1925,7 +1925,7 @@
         <v>43750</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C50">
         <v>138</v>
@@ -1937,7 +1937,7 @@
         <v>4</v>
       </c>
       <c r="F50" t="s">
-        <v>21</v>
+        <v>166</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -1945,7 +1945,7 @@
         <v>43750</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C51">
         <v>138</v>
@@ -1957,7 +1957,7 @@
         <v>5</v>
       </c>
       <c r="F51" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -1965,7 +1965,7 @@
         <v>43750</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C52">
         <v>138</v>
@@ -1977,7 +1977,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -1985,7 +1985,7 @@
         <v>43750</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C53">
         <v>138</v>
@@ -1997,7 +1997,7 @@
         <v>2</v>
       </c>
       <c r="F53" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -2005,7 +2005,7 @@
         <v>43750</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C54">
         <v>138</v>
@@ -2017,7 +2017,7 @@
         <v>3</v>
       </c>
       <c r="F54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -2025,7 +2025,7 @@
         <v>43750</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C55">
         <v>138</v>
@@ -2037,7 +2037,7 @@
         <v>4</v>
       </c>
       <c r="F55" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -2045,7 +2045,7 @@
         <v>43750</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C56">
         <v>138</v>
@@ -2057,7 +2057,7 @@
         <v>5</v>
       </c>
       <c r="F56" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -2065,7 +2065,7 @@
         <v>43750</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C57">
         <v>138</v>
@@ -2077,7 +2077,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -2085,7 +2085,7 @@
         <v>43750</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C58">
         <v>138</v>
@@ -2097,7 +2097,7 @@
         <v>2</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -2105,7 +2105,7 @@
         <v>43750</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C59">
         <v>138</v>
@@ -2117,7 +2117,7 @@
         <v>3</v>
       </c>
       <c r="F59" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -2125,7 +2125,7 @@
         <v>43750</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C60">
         <v>138</v>
@@ -2137,7 +2137,7 @@
         <v>4</v>
       </c>
       <c r="F60" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -2145,7 +2145,7 @@
         <v>43750</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C61">
         <v>138</v>
@@ -2157,7 +2157,7 @@
         <v>5</v>
       </c>
       <c r="F61" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -2165,7 +2165,7 @@
         <v>43750</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C62">
         <v>138</v>
@@ -2177,7 +2177,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -2185,7 +2185,7 @@
         <v>43750</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C63">
         <v>138</v>
@@ -2197,7 +2197,7 @@
         <v>2</v>
       </c>
       <c r="F63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -2205,7 +2205,7 @@
         <v>43750</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C64">
         <v>138</v>
@@ -2217,7 +2217,7 @@
         <v>3</v>
       </c>
       <c r="F64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -2225,7 +2225,7 @@
         <v>43750</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C65">
         <v>138</v>
@@ -2237,7 +2237,7 @@
         <v>4</v>
       </c>
       <c r="F65" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -2245,7 +2245,7 @@
         <v>43750</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C66">
         <v>138</v>
@@ -2257,7 +2257,7 @@
         <v>5</v>
       </c>
       <c r="F66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -2265,7 +2265,7 @@
         <v>43750</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C67">
         <v>138</v>
@@ -2285,7 +2285,7 @@
         <v>43750</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C68">
         <v>138</v>
@@ -2305,7 +2305,7 @@
         <v>43750</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C69">
         <v>138</v>
@@ -2325,7 +2325,7 @@
         <v>43750</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C70">
         <v>138</v>
@@ -2345,7 +2345,7 @@
         <v>43750</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C71">
         <v>138</v>
@@ -2365,7 +2365,7 @@
         <v>43750</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C72">
         <v>138</v>
@@ -2377,7 +2377,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -2385,7 +2385,7 @@
         <v>43750</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C73">
         <v>138</v>
@@ -2397,7 +2397,7 @@
         <v>2</v>
       </c>
       <c r="F73" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -2405,7 +2405,7 @@
         <v>43750</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C74">
         <v>138</v>
@@ -2417,7 +2417,7 @@
         <v>3</v>
       </c>
       <c r="F74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -2425,7 +2425,7 @@
         <v>43750</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C75">
         <v>138</v>
@@ -2437,7 +2437,7 @@
         <v>4</v>
       </c>
       <c r="F75" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -2445,7 +2445,7 @@
         <v>43750</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C76">
         <v>138</v>
@@ -2457,7 +2457,7 @@
         <v>5</v>
       </c>
       <c r="F76" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -2465,7 +2465,7 @@
         <v>43750</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C77">
         <v>138</v>
@@ -2485,7 +2485,7 @@
         <v>43750</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C78">
         <v>138</v>
@@ -2505,7 +2505,7 @@
         <v>43750</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C79">
         <v>138</v>
@@ -2525,7 +2525,7 @@
         <v>43750</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C80">
         <v>138</v>
@@ -2545,7 +2545,7 @@
         <v>43750</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C81">
         <v>138</v>
@@ -2565,7 +2565,7 @@
         <v>43750</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C82">
         <v>138</v>
@@ -2577,7 +2577,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
@@ -2585,7 +2585,7 @@
         <v>43750</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C83">
         <v>138</v>
@@ -2597,7 +2597,7 @@
         <v>2</v>
       </c>
       <c r="F83" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
@@ -2605,7 +2605,7 @@
         <v>43750</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C84">
         <v>138</v>
@@ -2617,7 +2617,7 @@
         <v>3</v>
       </c>
       <c r="F84" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
@@ -2625,7 +2625,7 @@
         <v>43750</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C85">
         <v>138</v>
@@ -2637,7 +2637,7 @@
         <v>4</v>
       </c>
       <c r="F85" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
@@ -2645,7 +2645,7 @@
         <v>43750</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C86">
         <v>138</v>
@@ -2657,7 +2657,7 @@
         <v>5</v>
       </c>
       <c r="F86" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
@@ -2665,7 +2665,7 @@
         <v>43750</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C87">
         <v>138</v>
@@ -2685,7 +2685,7 @@
         <v>43750</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C88">
         <v>138</v>
@@ -2705,7 +2705,7 @@
         <v>43750</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C89">
         <v>138</v>
@@ -2725,7 +2725,7 @@
         <v>43750</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C90">
         <v>138</v>
@@ -2745,7 +2745,7 @@
         <v>43750</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C91">
         <v>138</v>
@@ -2765,7 +2765,7 @@
         <v>43750</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C92">
         <v>138</v>
@@ -2785,7 +2785,7 @@
         <v>43750</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C93">
         <v>138</v>
@@ -2805,7 +2805,7 @@
         <v>43750</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C94">
         <v>138</v>
@@ -2820,7 +2820,7 @@
         <v>4</v>
       </c>
       <c r="G94" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
@@ -2828,7 +2828,7 @@
         <v>43750</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C95">
         <v>138</v>
@@ -2848,7 +2848,7 @@
         <v>43750</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C96">
         <v>138</v>
@@ -2868,7 +2868,7 @@
         <v>43751</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C97">
         <v>143</v>
@@ -2888,7 +2888,7 @@
         <v>43751</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C98">
         <v>143</v>
@@ -2908,7 +2908,7 @@
         <v>43751</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C99">
         <v>143</v>
@@ -2928,7 +2928,7 @@
         <v>43751</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C100">
         <v>143</v>
@@ -2948,7 +2948,7 @@
         <v>43751</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C101">
         <v>143</v>
@@ -2968,7 +2968,7 @@
         <v>43751</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C102">
         <v>143</v>
@@ -2988,7 +2988,7 @@
         <v>43751</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C103">
         <v>143</v>
@@ -3008,7 +3008,7 @@
         <v>43751</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C104">
         <v>143</v>
@@ -3028,7 +3028,7 @@
         <v>43751</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C105">
         <v>143</v>
@@ -3048,7 +3048,7 @@
         <v>43751</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C106">
         <v>143</v>
@@ -3068,7 +3068,7 @@
         <v>43751</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C107">
         <v>143</v>
@@ -3088,7 +3088,7 @@
         <v>43751</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C108">
         <v>143</v>
@@ -3108,7 +3108,7 @@
         <v>43751</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C109">
         <v>143</v>
@@ -3128,7 +3128,7 @@
         <v>43751</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C110">
         <v>143</v>
@@ -3148,7 +3148,7 @@
         <v>43751</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C111">
         <v>143</v>
@@ -3168,13 +3168,13 @@
         <v>43751</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C112">
         <v>143</v>
       </c>
       <c r="D112" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E112">
         <v>1</v>
@@ -3188,19 +3188,19 @@
         <v>43751</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C113">
         <v>143</v>
       </c>
       <c r="D113" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E113">
         <v>2</v>
       </c>
       <c r="F113" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -3208,13 +3208,13 @@
         <v>43751</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C114">
         <v>143</v>
       </c>
       <c r="D114" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E114">
         <v>3</v>
@@ -3228,13 +3228,13 @@
         <v>43751</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C115">
         <v>143</v>
       </c>
       <c r="D115" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E115">
         <v>4</v>
@@ -3248,13 +3248,13 @@
         <v>43751</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C116">
         <v>143</v>
       </c>
       <c r="D116" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E116">
         <v>5</v>
@@ -3268,7 +3268,7 @@
         <v>43751</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C117">
         <v>143</v>
@@ -3280,7 +3280,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
@@ -3288,7 +3288,7 @@
         <v>43751</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C118">
         <v>143</v>
@@ -3308,7 +3308,7 @@
         <v>43751</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C119">
         <v>143</v>
@@ -3320,7 +3320,7 @@
         <v>3</v>
       </c>
       <c r="F119" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
@@ -3328,7 +3328,7 @@
         <v>43751</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C120">
         <v>143</v>
@@ -3340,7 +3340,7 @@
         <v>4</v>
       </c>
       <c r="F120" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
@@ -3348,7 +3348,7 @@
         <v>43751</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C121">
         <v>143</v>
@@ -3368,7 +3368,7 @@
         <v>43751</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C122">
         <v>143</v>
@@ -3380,7 +3380,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
@@ -3388,7 +3388,7 @@
         <v>43751</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C123">
         <v>143</v>
@@ -3400,7 +3400,7 @@
         <v>2</v>
       </c>
       <c r="F123" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
@@ -3408,7 +3408,7 @@
         <v>43751</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C124">
         <v>143</v>
@@ -3420,7 +3420,7 @@
         <v>3</v>
       </c>
       <c r="F124" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
@@ -3428,7 +3428,7 @@
         <v>43751</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C125">
         <v>143</v>
@@ -3440,7 +3440,7 @@
         <v>4</v>
       </c>
       <c r="F125" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
@@ -3448,7 +3448,7 @@
         <v>43751</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C126">
         <v>143</v>
@@ -3460,7 +3460,7 @@
         <v>5</v>
       </c>
       <c r="F126" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
@@ -3468,7 +3468,7 @@
         <v>43751</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C127">
         <v>143</v>
@@ -3488,7 +3488,7 @@
         <v>43751</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C128">
         <v>143</v>
@@ -3500,7 +3500,7 @@
         <v>2</v>
       </c>
       <c r="F128" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
@@ -3508,7 +3508,7 @@
         <v>43751</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C129">
         <v>143</v>
@@ -3528,7 +3528,7 @@
         <v>43751</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C130">
         <v>143</v>
@@ -3540,7 +3540,7 @@
         <v>4</v>
       </c>
       <c r="F130" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
@@ -3548,7 +3548,7 @@
         <v>43751</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C131">
         <v>143</v>
@@ -3560,7 +3560,7 @@
         <v>5</v>
       </c>
       <c r="F131" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
@@ -3568,13 +3568,13 @@
         <v>43751</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C132">
         <v>143</v>
       </c>
       <c r="D132" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E132">
         <v>1</v>
@@ -3588,13 +3588,13 @@
         <v>43751</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C133">
         <v>143</v>
       </c>
       <c r="D133" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E133">
         <v>2</v>
@@ -3608,13 +3608,13 @@
         <v>43751</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C134">
         <v>143</v>
       </c>
       <c r="D134" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E134">
         <v>3</v>
@@ -3628,13 +3628,13 @@
         <v>43751</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C135">
         <v>143</v>
       </c>
       <c r="D135" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E135">
         <v>4</v>
@@ -3648,19 +3648,19 @@
         <v>43751</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C136">
         <v>143</v>
       </c>
       <c r="D136" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E136">
         <v>5</v>
       </c>
       <c r="F136" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
@@ -3668,7 +3668,7 @@
         <v>43751</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C137">
         <v>143</v>
@@ -3688,7 +3688,7 @@
         <v>43751</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C138">
         <v>143</v>
@@ -3708,7 +3708,7 @@
         <v>43751</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C139">
         <v>143</v>
@@ -3728,7 +3728,7 @@
         <v>43751</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C140">
         <v>143</v>
@@ -3748,7 +3748,7 @@
         <v>43751</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C141">
         <v>143</v>
@@ -3768,7 +3768,7 @@
         <v>43751</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C142">
         <v>144</v>
@@ -3780,7 +3780,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
@@ -3788,7 +3788,7 @@
         <v>43751</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C143">
         <v>144</v>
@@ -3800,7 +3800,7 @@
         <v>2</v>
       </c>
       <c r="F143" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
@@ -3808,7 +3808,7 @@
         <v>43751</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C144">
         <v>144</v>
@@ -3820,7 +3820,7 @@
         <v>3</v>
       </c>
       <c r="F144" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
@@ -3828,7 +3828,7 @@
         <v>43751</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C145">
         <v>144</v>
@@ -3840,7 +3840,7 @@
         <v>4</v>
       </c>
       <c r="F145" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
@@ -3848,7 +3848,7 @@
         <v>43751</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C146">
         <v>144</v>
@@ -3860,7 +3860,7 @@
         <v>5</v>
       </c>
       <c r="F146" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
@@ -3868,7 +3868,7 @@
         <v>43751</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C147">
         <v>144</v>
@@ -3880,7 +3880,7 @@
         <v>1</v>
       </c>
       <c r="F147" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
@@ -3888,7 +3888,7 @@
         <v>43751</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C148">
         <v>144</v>
@@ -3900,7 +3900,7 @@
         <v>2</v>
       </c>
       <c r="F148" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
@@ -3908,7 +3908,7 @@
         <v>43751</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C149">
         <v>144</v>
@@ -3920,7 +3920,7 @@
         <v>3</v>
       </c>
       <c r="F149" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
@@ -3928,7 +3928,7 @@
         <v>43751</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C150">
         <v>144</v>
@@ -3940,7 +3940,7 @@
         <v>4</v>
       </c>
       <c r="F150" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
@@ -3948,7 +3948,7 @@
         <v>43751</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C151">
         <v>144</v>
@@ -3960,7 +3960,7 @@
         <v>5</v>
       </c>
       <c r="F151" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
@@ -3968,7 +3968,7 @@
         <v>43751</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C152">
         <v>144</v>
@@ -3980,7 +3980,7 @@
         <v>1</v>
       </c>
       <c r="F152" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
@@ -3988,7 +3988,7 @@
         <v>43751</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C153">
         <v>144</v>
@@ -4000,7 +4000,7 @@
         <v>2</v>
       </c>
       <c r="F153" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
@@ -4008,7 +4008,7 @@
         <v>43751</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C154">
         <v>144</v>
@@ -4020,7 +4020,7 @@
         <v>3</v>
       </c>
       <c r="F154" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
@@ -4028,7 +4028,7 @@
         <v>43751</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C155">
         <v>144</v>
@@ -4040,7 +4040,7 @@
         <v>4</v>
       </c>
       <c r="F155" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
@@ -4048,7 +4048,7 @@
         <v>43751</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C156">
         <v>144</v>
@@ -4060,7 +4060,7 @@
         <v>5</v>
       </c>
       <c r="F156" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
@@ -4068,7 +4068,7 @@
         <v>43751</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C157">
         <v>144</v>
@@ -4088,7 +4088,7 @@
         <v>43751</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C158">
         <v>144</v>
@@ -4108,7 +4108,7 @@
         <v>43751</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C159">
         <v>144</v>
@@ -4120,7 +4120,7 @@
         <v>3</v>
       </c>
       <c r="F159" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
@@ -4128,7 +4128,7 @@
         <v>43751</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C160">
         <v>144</v>
@@ -4140,7 +4140,7 @@
         <v>4</v>
       </c>
       <c r="F160" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
@@ -4148,7 +4148,7 @@
         <v>43751</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C161">
         <v>144</v>
@@ -4160,7 +4160,7 @@
         <v>5</v>
       </c>
       <c r="F161" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
@@ -4168,7 +4168,7 @@
         <v>43751</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C162">
         <v>144</v>
@@ -4188,7 +4188,7 @@
         <v>43751</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C163">
         <v>144</v>
@@ -4208,7 +4208,7 @@
         <v>43751</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C164">
         <v>144</v>
@@ -4228,7 +4228,7 @@
         <v>43751</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C165">
         <v>144</v>
@@ -4248,7 +4248,7 @@
         <v>43751</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C166">
         <v>144</v>
@@ -4268,7 +4268,7 @@
         <v>43751</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C167">
         <v>144</v>
@@ -4280,7 +4280,7 @@
         <v>1</v>
       </c>
       <c r="F167" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
@@ -4288,7 +4288,7 @@
         <v>43751</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C168">
         <v>144</v>
@@ -4300,7 +4300,7 @@
         <v>2</v>
       </c>
       <c r="F168" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
@@ -4308,7 +4308,7 @@
         <v>43751</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C169">
         <v>144</v>
@@ -4320,7 +4320,7 @@
         <v>3</v>
       </c>
       <c r="F169" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
@@ -4328,7 +4328,7 @@
         <v>43751</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C170">
         <v>144</v>
@@ -4340,7 +4340,7 @@
         <v>4</v>
       </c>
       <c r="F170" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
@@ -4348,7 +4348,7 @@
         <v>43751</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C171">
         <v>144</v>
@@ -4360,7 +4360,7 @@
         <v>5</v>
       </c>
       <c r="F171" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
@@ -4368,7 +4368,7 @@
         <v>43751</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C172">
         <v>144</v>
@@ -4388,7 +4388,7 @@
         <v>43751</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C173">
         <v>144</v>
@@ -4408,7 +4408,7 @@
         <v>43751</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C174">
         <v>144</v>
@@ -4428,7 +4428,7 @@
         <v>43751</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C175">
         <v>144</v>
@@ -4448,7 +4448,7 @@
         <v>43751</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C176">
         <v>144</v>
@@ -4468,7 +4468,7 @@
         <v>43751</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C177">
         <v>144</v>
@@ -4488,7 +4488,7 @@
         <v>43751</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C178">
         <v>144</v>
@@ -4500,7 +4500,7 @@
         <v>2</v>
       </c>
       <c r="F178" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
@@ -4508,7 +4508,7 @@
         <v>43751</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C179">
         <v>144</v>
@@ -4520,7 +4520,7 @@
         <v>3</v>
       </c>
       <c r="F179" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
@@ -4528,7 +4528,7 @@
         <v>43751</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C180">
         <v>144</v>
@@ -4540,7 +4540,7 @@
         <v>4</v>
       </c>
       <c r="F180" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
@@ -4548,7 +4548,7 @@
         <v>43751</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C181">
         <v>144</v>
@@ -4560,7 +4560,7 @@
         <v>5</v>
       </c>
       <c r="F181" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
@@ -4568,7 +4568,7 @@
         <v>43751</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C182">
         <v>144</v>
@@ -4588,7 +4588,7 @@
         <v>43751</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C183">
         <v>144</v>
@@ -4608,7 +4608,7 @@
         <v>43751</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C184">
         <v>144</v>
@@ -4628,7 +4628,7 @@
         <v>43751</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C185">
         <v>144</v>
@@ -4648,7 +4648,7 @@
         <v>43751</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C186">
         <v>144</v>
@@ -4668,7 +4668,7 @@
         <v>43751</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C187">
         <v>144</v>
@@ -4688,7 +4688,7 @@
         <v>43751</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C188">
         <v>144</v>
@@ -4708,7 +4708,7 @@
         <v>43751</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C189">
         <v>144</v>
@@ -4720,7 +4720,7 @@
         <v>3</v>
       </c>
       <c r="F189" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
@@ -4728,7 +4728,7 @@
         <v>43751</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C190">
         <v>144</v>
@@ -4748,7 +4748,7 @@
         <v>43751</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C191">
         <v>144</v>
@@ -4768,7 +4768,7 @@
         <v>43751</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C192">
         <v>141</v>
@@ -4780,7 +4780,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
@@ -4788,7 +4788,7 @@
         <v>43751</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C193">
         <v>141</v>
@@ -4808,7 +4808,7 @@
         <v>43751</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C194">
         <v>141</v>
@@ -4828,7 +4828,7 @@
         <v>43751</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C195">
         <v>141</v>
@@ -4848,7 +4848,7 @@
         <v>43751</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C196">
         <v>141</v>
@@ -4868,7 +4868,7 @@
         <v>43751</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C197">
         <v>141</v>
@@ -4888,7 +4888,7 @@
         <v>43751</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C198">
         <v>141</v>
@@ -4908,7 +4908,7 @@
         <v>43751</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C199">
         <v>141</v>
@@ -4920,7 +4920,7 @@
         <v>3</v>
       </c>
       <c r="F199" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
@@ -4928,7 +4928,7 @@
         <v>43751</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C200">
         <v>141</v>
@@ -4948,7 +4948,7 @@
         <v>43751</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C201">
         <v>141</v>
@@ -4968,13 +4968,13 @@
         <v>43751</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C202">
         <v>141</v>
       </c>
       <c r="D202" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E202">
         <v>1</v>
@@ -4988,13 +4988,13 @@
         <v>43751</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C203">
         <v>141</v>
       </c>
       <c r="D203" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E203">
         <v>2</v>
@@ -5008,13 +5008,13 @@
         <v>43751</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C204">
         <v>141</v>
       </c>
       <c r="D204" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E204">
         <v>3</v>
@@ -5028,13 +5028,13 @@
         <v>43751</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C205">
         <v>141</v>
       </c>
       <c r="D205" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E205">
         <v>4</v>
@@ -5048,13 +5048,13 @@
         <v>43751</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C206">
         <v>141</v>
       </c>
       <c r="D206" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E206">
         <v>5</v>
@@ -5068,7 +5068,7 @@
         <v>43751</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C207">
         <v>141</v>
@@ -5088,7 +5088,7 @@
         <v>43751</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C208">
         <v>141</v>
@@ -5108,7 +5108,7 @@
         <v>43751</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C209">
         <v>141</v>
@@ -5128,7 +5128,7 @@
         <v>43751</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C210">
         <v>141</v>
@@ -5148,7 +5148,7 @@
         <v>43751</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C211">
         <v>141</v>
@@ -5168,7 +5168,7 @@
         <v>43751</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C212">
         <v>141</v>
@@ -5188,7 +5188,7 @@
         <v>43751</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C213">
         <v>141</v>
@@ -5200,7 +5200,7 @@
         <v>2</v>
       </c>
       <c r="F213" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
@@ -5208,7 +5208,7 @@
         <v>43751</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C214">
         <v>141</v>
@@ -5228,7 +5228,7 @@
         <v>43751</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C215">
         <v>141</v>
@@ -5248,7 +5248,7 @@
         <v>43751</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C216">
         <v>141</v>
@@ -5260,7 +5260,7 @@
         <v>5</v>
       </c>
       <c r="F216" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
@@ -5268,7 +5268,7 @@
         <v>43751</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C217">
         <v>141</v>
@@ -5288,7 +5288,7 @@
         <v>43751</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C218">
         <v>141</v>
@@ -5308,7 +5308,7 @@
         <v>43751</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C219">
         <v>141</v>
@@ -5328,7 +5328,7 @@
         <v>43751</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C220">
         <v>141</v>
@@ -5340,7 +5340,7 @@
         <v>4</v>
       </c>
       <c r="F220" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
@@ -5348,7 +5348,7 @@
         <v>43751</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C221">
         <v>141</v>
@@ -5360,7 +5360,7 @@
         <v>5</v>
       </c>
       <c r="F221" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
@@ -5368,7 +5368,7 @@
         <v>43751</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C222">
         <v>141</v>
@@ -5388,7 +5388,7 @@
         <v>43751</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C223">
         <v>141</v>
@@ -5400,7 +5400,7 @@
         <v>2</v>
       </c>
       <c r="F223" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
@@ -5408,7 +5408,7 @@
         <v>43751</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C224">
         <v>141</v>
@@ -5420,7 +5420,7 @@
         <v>3</v>
       </c>
       <c r="F224" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
@@ -5428,7 +5428,7 @@
         <v>43751</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C225">
         <v>141</v>
@@ -5440,7 +5440,7 @@
         <v>4</v>
       </c>
       <c r="F225" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
@@ -5448,7 +5448,7 @@
         <v>43751</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C226">
         <v>141</v>
@@ -5460,7 +5460,7 @@
         <v>5</v>
       </c>
       <c r="F226" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
@@ -5468,13 +5468,13 @@
         <v>43751</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C227">
         <v>141</v>
       </c>
       <c r="D227" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E227">
         <v>1</v>
@@ -5488,13 +5488,13 @@
         <v>43751</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C228">
         <v>141</v>
       </c>
       <c r="D228" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E228">
         <v>2</v>
@@ -5508,13 +5508,13 @@
         <v>43751</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C229">
         <v>141</v>
       </c>
       <c r="D229" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E229">
         <v>3</v>
@@ -5528,13 +5528,13 @@
         <v>43751</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C230">
         <v>141</v>
       </c>
       <c r="D230" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E230">
         <v>4</v>
@@ -5548,13 +5548,13 @@
         <v>43751</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C231">
         <v>141</v>
       </c>
       <c r="D231" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E231">
         <v>5</v>
@@ -5568,7 +5568,7 @@
         <v>43751</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C232">
         <v>141</v>
@@ -5588,7 +5588,7 @@
         <v>43751</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C233">
         <v>141</v>
@@ -5608,7 +5608,7 @@
         <v>43751</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C234">
         <v>141</v>
@@ -5628,7 +5628,7 @@
         <v>43751</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C235">
         <v>141</v>
@@ -5648,7 +5648,7 @@
         <v>43751</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C236">
         <v>141</v>
@@ -5668,7 +5668,7 @@
         <v>43751</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C237">
         <v>142</v>
@@ -5680,7 +5680,7 @@
         <v>1</v>
       </c>
       <c r="F237" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
@@ -5688,7 +5688,7 @@
         <v>43751</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C238">
         <v>142</v>
@@ -5700,7 +5700,7 @@
         <v>2</v>
       </c>
       <c r="F238" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
@@ -5708,7 +5708,7 @@
         <v>43751</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C239">
         <v>142</v>
@@ -5720,7 +5720,7 @@
         <v>3</v>
       </c>
       <c r="F239" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
@@ -5728,7 +5728,7 @@
         <v>43751</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C240">
         <v>142</v>
@@ -5740,7 +5740,7 @@
         <v>4</v>
       </c>
       <c r="F240" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
@@ -5748,7 +5748,7 @@
         <v>43751</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C241">
         <v>142</v>
@@ -5760,7 +5760,7 @@
         <v>5</v>
       </c>
       <c r="F241" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
@@ -5768,7 +5768,7 @@
         <v>43751</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C242">
         <v>142</v>
@@ -5780,7 +5780,7 @@
         <v>1</v>
       </c>
       <c r="F242" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
@@ -5788,7 +5788,7 @@
         <v>43751</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C243">
         <v>142</v>
@@ -5800,7 +5800,7 @@
         <v>2</v>
       </c>
       <c r="F243" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
@@ -5808,7 +5808,7 @@
         <v>43751</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C244">
         <v>142</v>
@@ -5820,7 +5820,7 @@
         <v>3</v>
       </c>
       <c r="F244" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
@@ -5828,7 +5828,7 @@
         <v>43751</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C245">
         <v>142</v>
@@ -5840,7 +5840,7 @@
         <v>4</v>
       </c>
       <c r="F245" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
@@ -5848,7 +5848,7 @@
         <v>43751</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C246">
         <v>142</v>
@@ -5860,7 +5860,7 @@
         <v>5</v>
       </c>
       <c r="F246" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
@@ -5868,7 +5868,7 @@
         <v>43751</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C247">
         <v>142</v>
@@ -5880,7 +5880,7 @@
         <v>1</v>
       </c>
       <c r="F247" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
@@ -5888,7 +5888,7 @@
         <v>43751</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C248">
         <v>142</v>
@@ -5900,7 +5900,7 @@
         <v>2</v>
       </c>
       <c r="F248" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
@@ -5908,7 +5908,7 @@
         <v>43751</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C249">
         <v>142</v>
@@ -5920,7 +5920,7 @@
         <v>3</v>
       </c>
       <c r="F249" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
@@ -5928,7 +5928,7 @@
         <v>43751</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C250">
         <v>142</v>
@@ -5940,7 +5940,7 @@
         <v>4</v>
       </c>
       <c r="F250" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
@@ -5948,7 +5948,7 @@
         <v>43751</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C251">
         <v>142</v>
@@ -5960,7 +5960,7 @@
         <v>5</v>
       </c>
       <c r="F251" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
@@ -5968,7 +5968,7 @@
         <v>43751</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C252">
         <v>142</v>
@@ -5980,7 +5980,7 @@
         <v>1</v>
       </c>
       <c r="F252" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
@@ -5988,7 +5988,7 @@
         <v>43751</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C253">
         <v>142</v>
@@ -6000,7 +6000,7 @@
         <v>2</v>
       </c>
       <c r="F253" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
@@ -6008,7 +6008,7 @@
         <v>43751</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C254">
         <v>142</v>
@@ -6020,7 +6020,7 @@
         <v>3</v>
       </c>
       <c r="F254" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
@@ -6028,7 +6028,7 @@
         <v>43751</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C255">
         <v>142</v>
@@ -6040,7 +6040,7 @@
         <v>4</v>
       </c>
       <c r="F255" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
@@ -6048,7 +6048,7 @@
         <v>43751</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C256">
         <v>142</v>
@@ -6060,7 +6060,7 @@
         <v>5</v>
       </c>
       <c r="F256" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
@@ -6068,7 +6068,7 @@
         <v>43751</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C257">
         <v>142</v>
@@ -6080,7 +6080,7 @@
         <v>1</v>
       </c>
       <c r="F257" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.2">
@@ -6088,7 +6088,7 @@
         <v>43751</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C258">
         <v>142</v>
@@ -6100,7 +6100,7 @@
         <v>2</v>
       </c>
       <c r="F258" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.2">
@@ -6108,7 +6108,7 @@
         <v>43751</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C259">
         <v>142</v>
@@ -6120,7 +6120,7 @@
         <v>3</v>
       </c>
       <c r="F259" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.2">
@@ -6128,7 +6128,7 @@
         <v>43751</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C260">
         <v>142</v>
@@ -6140,7 +6140,7 @@
         <v>4</v>
       </c>
       <c r="F260" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.2">
@@ -6148,7 +6148,7 @@
         <v>43751</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C261">
         <v>142</v>
@@ -6160,7 +6160,7 @@
         <v>5</v>
       </c>
       <c r="F261" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
@@ -6168,7 +6168,7 @@
         <v>43751</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C262">
         <v>142</v>
@@ -6180,7 +6180,7 @@
         <v>1</v>
       </c>
       <c r="F262" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.2">
@@ -6188,7 +6188,7 @@
         <v>43751</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C263">
         <v>142</v>
@@ -6200,7 +6200,7 @@
         <v>2</v>
       </c>
       <c r="F263" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.2">
@@ -6208,7 +6208,7 @@
         <v>43751</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C264">
         <v>142</v>
@@ -6220,7 +6220,7 @@
         <v>3</v>
       </c>
       <c r="F264" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.2">
@@ -6228,7 +6228,7 @@
         <v>43751</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C265">
         <v>142</v>
@@ -6240,7 +6240,7 @@
         <v>4</v>
       </c>
       <c r="F265" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.2">
@@ -6248,7 +6248,7 @@
         <v>43751</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C266">
         <v>142</v>
@@ -6260,7 +6260,7 @@
         <v>5</v>
       </c>
       <c r="F266" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.2">
@@ -6268,7 +6268,7 @@
         <v>43751</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C267">
         <v>142</v>
@@ -6288,7 +6288,7 @@
         <v>43751</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C268">
         <v>142</v>
@@ -6308,7 +6308,7 @@
         <v>43751</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C269">
         <v>142</v>
@@ -6328,7 +6328,7 @@
         <v>43751</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C270">
         <v>142</v>
@@ -6348,7 +6348,7 @@
         <v>43751</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C271">
         <v>142</v>
@@ -6368,7 +6368,7 @@
         <v>43751</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C272">
         <v>142</v>
@@ -6388,7 +6388,7 @@
         <v>43751</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C273">
         <v>142</v>
@@ -6408,7 +6408,7 @@
         <v>43751</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C274">
         <v>142</v>
@@ -6428,7 +6428,7 @@
         <v>43751</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C275">
         <v>142</v>
@@ -6448,7 +6448,7 @@
         <v>43751</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C276">
         <v>142</v>
@@ -6468,7 +6468,7 @@
         <v>43751</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C277">
         <v>142</v>
@@ -6480,7 +6480,7 @@
         <v>1</v>
       </c>
       <c r="F277" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.2">
@@ -6488,7 +6488,7 @@
         <v>43751</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C278">
         <v>142</v>
@@ -6500,7 +6500,7 @@
         <v>2</v>
       </c>
       <c r="F278" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.2">
@@ -6508,7 +6508,7 @@
         <v>43751</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C279">
         <v>142</v>
@@ -6520,7 +6520,7 @@
         <v>3</v>
       </c>
       <c r="F279" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.2">
@@ -6528,7 +6528,7 @@
         <v>43751</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C280">
         <v>142</v>
@@ -6540,7 +6540,7 @@
         <v>4</v>
       </c>
       <c r="F280" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.2">
@@ -6548,7 +6548,7 @@
         <v>43751</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C281">
         <v>142</v>
@@ -6560,7 +6560,7 @@
         <v>5</v>
       </c>
       <c r="F281" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.2">
@@ -6568,7 +6568,7 @@
         <v>43751</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C282">
         <v>142</v>
@@ -6588,7 +6588,7 @@
         <v>43751</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C283">
         <v>142</v>
@@ -6608,7 +6608,7 @@
         <v>43751</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C284">
         <v>142</v>
@@ -6628,7 +6628,7 @@
         <v>43751</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C285">
         <v>142</v>
@@ -6648,7 +6648,7 @@
         <v>43751</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C286">
         <v>142</v>
@@ -6668,7 +6668,7 @@
         <v>43751</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C287">
         <v>139</v>
@@ -6688,7 +6688,7 @@
         <v>43751</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C288">
         <v>139</v>
@@ -6708,7 +6708,7 @@
         <v>43751</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C289">
         <v>139</v>
@@ -6728,7 +6728,7 @@
         <v>43751</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C290">
         <v>139</v>
@@ -6748,7 +6748,7 @@
         <v>43751</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C291">
         <v>139</v>
@@ -6768,7 +6768,7 @@
         <v>43751</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C292">
         <v>139</v>
@@ -6788,7 +6788,7 @@
         <v>43751</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C293">
         <v>139</v>
@@ -6808,7 +6808,7 @@
         <v>43751</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C294">
         <v>139</v>
@@ -6828,7 +6828,7 @@
         <v>43751</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C295">
         <v>139</v>
@@ -6848,7 +6848,7 @@
         <v>43751</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C296">
         <v>139</v>
@@ -6868,7 +6868,7 @@
         <v>43751</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C297">
         <v>139</v>
@@ -6888,7 +6888,7 @@
         <v>43751</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C298">
         <v>139</v>
@@ -6908,7 +6908,7 @@
         <v>43751</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C299">
         <v>139</v>
@@ -6928,7 +6928,7 @@
         <v>43751</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C300">
         <v>139</v>
@@ -6948,7 +6948,7 @@
         <v>43751</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C301">
         <v>139</v>
@@ -6968,13 +6968,13 @@
         <v>43751</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C302">
         <v>139</v>
       </c>
       <c r="D302" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E302">
         <v>1</v>
@@ -6988,13 +6988,13 @@
         <v>43751</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C303">
         <v>139</v>
       </c>
       <c r="D303" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E303">
         <v>2</v>
@@ -7008,13 +7008,13 @@
         <v>43751</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C304">
         <v>139</v>
       </c>
       <c r="D304" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E304">
         <v>3</v>
@@ -7028,13 +7028,13 @@
         <v>43751</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C305">
         <v>139</v>
       </c>
       <c r="D305" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E305">
         <v>4</v>
@@ -7048,13 +7048,13 @@
         <v>43751</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C306">
         <v>139</v>
       </c>
       <c r="D306" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E306">
         <v>5</v>
@@ -7068,7 +7068,7 @@
         <v>43751</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C307">
         <v>139</v>
@@ -7088,7 +7088,7 @@
         <v>43751</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C308">
         <v>139</v>
@@ -7108,7 +7108,7 @@
         <v>43751</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C309">
         <v>139</v>
@@ -7128,7 +7128,7 @@
         <v>43751</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C310">
         <v>139</v>
@@ -7148,7 +7148,7 @@
         <v>43751</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C311">
         <v>139</v>
@@ -7168,7 +7168,7 @@
         <v>43751</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C312">
         <v>139</v>
@@ -7188,7 +7188,7 @@
         <v>43751</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C313">
         <v>139</v>
@@ -7208,7 +7208,7 @@
         <v>43751</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C314">
         <v>139</v>
@@ -7228,7 +7228,7 @@
         <v>43751</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C315">
         <v>139</v>
@@ -7248,7 +7248,7 @@
         <v>43751</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C316">
         <v>139</v>
@@ -7268,7 +7268,7 @@
         <v>43751</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C317">
         <v>139</v>
@@ -7288,7 +7288,7 @@
         <v>43751</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C318">
         <v>139</v>
@@ -7308,7 +7308,7 @@
         <v>43751</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C319">
         <v>139</v>
@@ -7328,7 +7328,7 @@
         <v>43751</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C320">
         <v>139</v>
@@ -7348,7 +7348,7 @@
         <v>43751</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C321">
         <v>139</v>
@@ -7368,13 +7368,13 @@
         <v>43751</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C322">
         <v>139</v>
       </c>
       <c r="D322" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E322">
         <v>1</v>
@@ -7388,13 +7388,13 @@
         <v>43751</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C323">
         <v>139</v>
       </c>
       <c r="D323" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E323">
         <v>2</v>
@@ -7408,13 +7408,13 @@
         <v>43751</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C324">
         <v>139</v>
       </c>
       <c r="D324" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E324">
         <v>3</v>
@@ -7428,13 +7428,13 @@
         <v>43751</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C325">
         <v>139</v>
       </c>
       <c r="D325" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E325">
         <v>4</v>
@@ -7448,13 +7448,13 @@
         <v>43751</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C326">
         <v>139</v>
       </c>
       <c r="D326" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E326">
         <v>5</v>
@@ -7468,7 +7468,7 @@
         <v>43751</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C327">
         <v>139</v>
@@ -7488,7 +7488,7 @@
         <v>43751</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C328">
         <v>139</v>
@@ -7508,7 +7508,7 @@
         <v>43751</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C329">
         <v>139</v>
@@ -7528,7 +7528,7 @@
         <v>43751</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C330">
         <v>139</v>
@@ -7548,7 +7548,7 @@
         <v>43751</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C331">
         <v>139</v>
@@ -7568,7 +7568,7 @@
         <v>43751</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C332">
         <v>140</v>
@@ -7588,7 +7588,7 @@
         <v>43751</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C333">
         <v>140</v>
@@ -7600,7 +7600,7 @@
         <v>2</v>
       </c>
       <c r="F333" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.2">
@@ -7608,7 +7608,7 @@
         <v>43751</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C334">
         <v>140</v>
@@ -7620,7 +7620,7 @@
         <v>3</v>
       </c>
       <c r="F334" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.2">
@@ -7628,7 +7628,7 @@
         <v>43751</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C335">
         <v>140</v>
@@ -7648,7 +7648,7 @@
         <v>43751</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C336">
         <v>140</v>
@@ -7660,7 +7660,7 @@
         <v>5</v>
       </c>
       <c r="F336" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.2">
@@ -7668,7 +7668,7 @@
         <v>43751</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C337">
         <v>140</v>
@@ -7688,7 +7688,7 @@
         <v>43751</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C338">
         <v>140</v>
@@ -7708,7 +7708,7 @@
         <v>43751</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C339">
         <v>140</v>
@@ -7720,7 +7720,7 @@
         <v>3</v>
       </c>
       <c r="F339" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.2">
@@ -7728,7 +7728,7 @@
         <v>43751</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C340">
         <v>140</v>
@@ -7740,7 +7740,7 @@
         <v>4</v>
       </c>
       <c r="F340" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.2">
@@ -7748,7 +7748,7 @@
         <v>43751</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C341">
         <v>140</v>
@@ -7760,7 +7760,7 @@
         <v>5</v>
       </c>
       <c r="F341" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.2">
@@ -7768,7 +7768,7 @@
         <v>43751</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C342">
         <v>140</v>
@@ -7780,7 +7780,7 @@
         <v>1</v>
       </c>
       <c r="F342" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.2">
@@ -7788,7 +7788,7 @@
         <v>43751</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C343">
         <v>140</v>
@@ -7800,7 +7800,7 @@
         <v>2</v>
       </c>
       <c r="F343" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.2">
@@ -7808,7 +7808,7 @@
         <v>43751</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C344">
         <v>140</v>
@@ -7820,7 +7820,7 @@
         <v>3</v>
       </c>
       <c r="F344" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.2">
@@ -7828,7 +7828,7 @@
         <v>43751</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C345">
         <v>140</v>
@@ -7840,7 +7840,7 @@
         <v>4</v>
       </c>
       <c r="F345" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.2">
@@ -7848,7 +7848,7 @@
         <v>43751</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C346">
         <v>140</v>
@@ -7860,7 +7860,7 @@
         <v>5</v>
       </c>
       <c r="F346" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.2">
@@ -7868,7 +7868,7 @@
         <v>43751</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C347">
         <v>140</v>
@@ -7888,7 +7888,7 @@
         <v>43751</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C348">
         <v>140</v>
@@ -7900,7 +7900,7 @@
         <v>2</v>
       </c>
       <c r="F348" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.2">
@@ -7908,7 +7908,7 @@
         <v>43751</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C349">
         <v>140</v>
@@ -7920,7 +7920,7 @@
         <v>3</v>
       </c>
       <c r="F349" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.2">
@@ -7928,7 +7928,7 @@
         <v>43751</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C350">
         <v>140</v>
@@ -7940,7 +7940,7 @@
         <v>4</v>
       </c>
       <c r="F350" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.2">
@@ -7948,7 +7948,7 @@
         <v>43751</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C351">
         <v>140</v>
@@ -7960,7 +7960,7 @@
         <v>5</v>
       </c>
       <c r="F351" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.2">
@@ -7968,7 +7968,7 @@
         <v>43751</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C352">
         <v>140</v>
@@ -7980,7 +7980,7 @@
         <v>1</v>
       </c>
       <c r="F352" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.2">
@@ -7988,7 +7988,7 @@
         <v>43751</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C353">
         <v>140</v>
@@ -8000,7 +8000,7 @@
         <v>2</v>
       </c>
       <c r="F353" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.2">
@@ -8008,7 +8008,7 @@
         <v>43751</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C354">
         <v>140</v>
@@ -8020,7 +8020,7 @@
         <v>3</v>
       </c>
       <c r="F354" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.2">
@@ -8028,7 +8028,7 @@
         <v>43751</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C355">
         <v>140</v>
@@ -8040,7 +8040,7 @@
         <v>4</v>
       </c>
       <c r="F355" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.2">
@@ -8048,7 +8048,7 @@
         <v>43751</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C356">
         <v>140</v>
@@ -8060,7 +8060,7 @@
         <v>5</v>
       </c>
       <c r="F356" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.2">
@@ -8068,7 +8068,7 @@
         <v>43751</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C357">
         <v>140</v>
@@ -8088,7 +8088,7 @@
         <v>43751</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C358">
         <v>140</v>
@@ -8108,7 +8108,7 @@
         <v>43751</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C359">
         <v>140</v>
@@ -8128,7 +8128,7 @@
         <v>43751</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C360">
         <v>140</v>
@@ -8148,7 +8148,7 @@
         <v>43751</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C361">
         <v>140</v>
@@ -8168,7 +8168,7 @@
         <v>43751</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C362">
         <v>140</v>
@@ -8188,7 +8188,7 @@
         <v>43751</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C363">
         <v>140</v>
@@ -8200,7 +8200,7 @@
         <v>2</v>
       </c>
       <c r="F363" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.2">
@@ -8208,7 +8208,7 @@
         <v>43751</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C364">
         <v>140</v>
@@ -8220,7 +8220,7 @@
         <v>3</v>
       </c>
       <c r="F364" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.2">
@@ -8228,7 +8228,7 @@
         <v>43751</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C365">
         <v>140</v>
@@ -8240,7 +8240,7 @@
         <v>4</v>
       </c>
       <c r="F365" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.2">
@@ -8248,7 +8248,7 @@
         <v>43751</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C366">
         <v>140</v>
@@ -8260,7 +8260,7 @@
         <v>5</v>
       </c>
       <c r="F366" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.2">
@@ -8268,7 +8268,7 @@
         <v>43751</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C367">
         <v>140</v>
@@ -8288,7 +8288,7 @@
         <v>43751</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C368">
         <v>140</v>
@@ -8308,7 +8308,7 @@
         <v>43751</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C369">
         <v>140</v>
@@ -8328,7 +8328,7 @@
         <v>43751</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C370">
         <v>140</v>
@@ -8348,7 +8348,7 @@
         <v>43751</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C371">
         <v>140</v>
@@ -8368,7 +8368,7 @@
         <v>43751</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C372">
         <v>140</v>
@@ -8388,7 +8388,7 @@
         <v>43751</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C373">
         <v>140</v>
@@ -8408,7 +8408,7 @@
         <v>43751</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C374">
         <v>140</v>
@@ -8428,7 +8428,7 @@
         <v>43751</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C375">
         <v>140</v>
@@ -8448,7 +8448,7 @@
         <v>43751</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C376">
         <v>140</v>
@@ -8468,7 +8468,7 @@
         <v>43751</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C377">
         <v>140</v>
@@ -8488,7 +8488,7 @@
         <v>43751</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C378">
         <v>140</v>
@@ -8508,7 +8508,7 @@
         <v>43751</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C379">
         <v>140</v>
@@ -8528,7 +8528,7 @@
         <v>43751</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C380">
         <v>140</v>
@@ -8548,7 +8548,7 @@
         <v>43751</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C381">
         <v>140</v>
@@ -8560,7 +8560,7 @@
         <v>5</v>
       </c>
       <c r="F381" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.2">
@@ -8568,7 +8568,7 @@
         <v>43753</v>
       </c>
       <c r="B382" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C382">
         <v>145</v>
@@ -8588,7 +8588,7 @@
         <v>43753</v>
       </c>
       <c r="B383" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C383">
         <v>145</v>
@@ -8608,7 +8608,7 @@
         <v>43753</v>
       </c>
       <c r="B384" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C384">
         <v>145</v>
@@ -8628,7 +8628,7 @@
         <v>43753</v>
       </c>
       <c r="B385" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C385">
         <v>145</v>
@@ -8648,7 +8648,7 @@
         <v>43753</v>
       </c>
       <c r="B386" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C386">
         <v>145</v>
@@ -8668,7 +8668,7 @@
         <v>43753</v>
       </c>
       <c r="B387" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C387">
         <v>145</v>
@@ -8680,7 +8680,7 @@
         <v>1</v>
       </c>
       <c r="F387" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.2">
@@ -8688,7 +8688,7 @@
         <v>43753</v>
       </c>
       <c r="B388" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C388">
         <v>145</v>
@@ -8700,7 +8700,7 @@
         <v>2</v>
       </c>
       <c r="F388" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.2">
@@ -8708,7 +8708,7 @@
         <v>43753</v>
       </c>
       <c r="B389" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C389">
         <v>145</v>
@@ -8720,7 +8720,7 @@
         <v>3</v>
       </c>
       <c r="F389" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.2">
@@ -8728,7 +8728,7 @@
         <v>43753</v>
       </c>
       <c r="B390" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C390">
         <v>145</v>
@@ -8740,7 +8740,7 @@
         <v>4</v>
       </c>
       <c r="F390" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.2">
@@ -8748,7 +8748,7 @@
         <v>43753</v>
       </c>
       <c r="B391" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C391">
         <v>145</v>
@@ -8760,7 +8760,7 @@
         <v>5</v>
       </c>
       <c r="F391" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.2">
@@ -8768,7 +8768,7 @@
         <v>43753</v>
       </c>
       <c r="B392" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C392">
         <v>145</v>
@@ -8788,7 +8788,7 @@
         <v>43753</v>
       </c>
       <c r="B393" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C393">
         <v>145</v>
@@ -8808,7 +8808,7 @@
         <v>43753</v>
       </c>
       <c r="B394" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C394">
         <v>145</v>
@@ -8828,7 +8828,7 @@
         <v>43753</v>
       </c>
       <c r="B395" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C395">
         <v>145</v>
@@ -8848,7 +8848,7 @@
         <v>43753</v>
       </c>
       <c r="B396" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C396">
         <v>145</v>
@@ -8868,13 +8868,13 @@
         <v>43753</v>
       </c>
       <c r="B397" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C397">
         <v>145</v>
       </c>
       <c r="D397" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E397">
         <v>1</v>
@@ -8888,13 +8888,13 @@
         <v>43753</v>
       </c>
       <c r="B398" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C398">
         <v>145</v>
       </c>
       <c r="D398" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E398">
         <v>2</v>
@@ -8908,13 +8908,13 @@
         <v>43753</v>
       </c>
       <c r="B399" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C399">
         <v>145</v>
       </c>
       <c r="D399" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E399">
         <v>3</v>
@@ -8928,13 +8928,13 @@
         <v>43753</v>
       </c>
       <c r="B400" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C400">
         <v>145</v>
       </c>
       <c r="D400" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E400">
         <v>4</v>
@@ -8948,13 +8948,13 @@
         <v>43753</v>
       </c>
       <c r="B401" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C401">
         <v>145</v>
       </c>
       <c r="D401" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E401">
         <v>5</v>
@@ -8968,7 +8968,7 @@
         <v>43753</v>
       </c>
       <c r="B402" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C402">
         <v>145</v>
@@ -8980,7 +8980,7 @@
         <v>1</v>
       </c>
       <c r="F402" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.2">
@@ -8988,7 +8988,7 @@
         <v>43753</v>
       </c>
       <c r="B403" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C403">
         <v>145</v>
@@ -9000,7 +9000,7 @@
         <v>2</v>
       </c>
       <c r="F403" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.2">
@@ -9008,7 +9008,7 @@
         <v>43753</v>
       </c>
       <c r="B404" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C404">
         <v>145</v>
@@ -9028,7 +9028,7 @@
         <v>43753</v>
       </c>
       <c r="B405" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C405">
         <v>145</v>
@@ -9048,7 +9048,7 @@
         <v>43753</v>
       </c>
       <c r="B406" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C406">
         <v>145</v>
@@ -9060,7 +9060,7 @@
         <v>5</v>
       </c>
       <c r="F406" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.2">
@@ -9068,7 +9068,7 @@
         <v>43753</v>
       </c>
       <c r="B407" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C407">
         <v>145</v>
@@ -9080,10 +9080,10 @@
         <v>1</v>
       </c>
       <c r="F407" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G407" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.2">
@@ -9091,7 +9091,7 @@
         <v>43753</v>
       </c>
       <c r="B408" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C408">
         <v>145</v>
@@ -9111,7 +9111,7 @@
         <v>43753</v>
       </c>
       <c r="B409" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C409">
         <v>145</v>
@@ -9131,7 +9131,7 @@
         <v>43753</v>
       </c>
       <c r="B410" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C410">
         <v>145</v>
@@ -9151,7 +9151,7 @@
         <v>43753</v>
       </c>
       <c r="B411" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C411">
         <v>145</v>
@@ -9171,7 +9171,7 @@
         <v>43753</v>
       </c>
       <c r="B412" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C412">
         <v>145</v>
@@ -9183,7 +9183,7 @@
         <v>1</v>
       </c>
       <c r="F412" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.2">
@@ -9191,7 +9191,7 @@
         <v>43753</v>
       </c>
       <c r="B413" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C413">
         <v>145</v>
@@ -9203,7 +9203,7 @@
         <v>2</v>
       </c>
       <c r="F413" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.2">
@@ -9211,7 +9211,7 @@
         <v>43753</v>
       </c>
       <c r="B414" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C414">
         <v>145</v>
@@ -9223,7 +9223,7 @@
         <v>3</v>
       </c>
       <c r="F414" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.2">
@@ -9231,7 +9231,7 @@
         <v>43753</v>
       </c>
       <c r="B415" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C415">
         <v>145</v>
@@ -9243,7 +9243,7 @@
         <v>4</v>
       </c>
       <c r="F415" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.2">
@@ -9251,7 +9251,7 @@
         <v>43753</v>
       </c>
       <c r="B416" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C416">
         <v>145</v>
@@ -9263,7 +9263,7 @@
         <v>5</v>
       </c>
       <c r="F416" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.2">
@@ -9271,13 +9271,13 @@
         <v>43753</v>
       </c>
       <c r="B417" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C417">
         <v>145</v>
       </c>
       <c r="D417" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E417">
         <v>1</v>
@@ -9291,13 +9291,13 @@
         <v>43753</v>
       </c>
       <c r="B418" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C418">
         <v>145</v>
       </c>
       <c r="D418" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E418">
         <v>2</v>
@@ -9311,19 +9311,19 @@
         <v>43753</v>
       </c>
       <c r="B419" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C419">
         <v>145</v>
       </c>
       <c r="D419" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E419">
         <v>3</v>
       </c>
       <c r="F419" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.2">
@@ -9331,13 +9331,13 @@
         <v>43753</v>
       </c>
       <c r="B420" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C420">
         <v>145</v>
       </c>
       <c r="D420" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E420">
         <v>4</v>
@@ -9351,19 +9351,19 @@
         <v>43753</v>
       </c>
       <c r="B421" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C421">
         <v>145</v>
       </c>
       <c r="D421" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E421">
         <v>5</v>
       </c>
       <c r="F421" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.2">
@@ -9371,7 +9371,7 @@
         <v>43753</v>
       </c>
       <c r="B422" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C422">
         <v>145</v>
@@ -9391,7 +9391,7 @@
         <v>43753</v>
       </c>
       <c r="B423" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C423">
         <v>145</v>
@@ -9411,7 +9411,7 @@
         <v>43753</v>
       </c>
       <c r="B424" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C424">
         <v>145</v>
@@ -9431,7 +9431,7 @@
         <v>43753</v>
       </c>
       <c r="B425" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C425">
         <v>145</v>
@@ -9451,7 +9451,7 @@
         <v>43753</v>
       </c>
       <c r="B426" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C426">
         <v>145</v>
@@ -9471,7 +9471,7 @@
         <v>43753</v>
       </c>
       <c r="B427" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C427">
         <v>146</v>
@@ -9483,7 +9483,7 @@
         <v>1</v>
       </c>
       <c r="F427" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.2">
@@ -9491,7 +9491,7 @@
         <v>43753</v>
       </c>
       <c r="B428" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C428">
         <v>146</v>
@@ -9503,7 +9503,7 @@
         <v>2</v>
       </c>
       <c r="F428" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.2">
@@ -9511,7 +9511,7 @@
         <v>43753</v>
       </c>
       <c r="B429" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C429">
         <v>146</v>
@@ -9523,7 +9523,7 @@
         <v>3</v>
       </c>
       <c r="F429" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.2">
@@ -9531,7 +9531,7 @@
         <v>43753</v>
       </c>
       <c r="B430" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C430">
         <v>146</v>
@@ -9543,7 +9543,7 @@
         <v>4</v>
       </c>
       <c r="F430" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.2">
@@ -9551,7 +9551,7 @@
         <v>43753</v>
       </c>
       <c r="B431" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C431">
         <v>146</v>
@@ -9563,7 +9563,7 @@
         <v>5</v>
       </c>
       <c r="F431" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.2">
@@ -9571,7 +9571,7 @@
         <v>43753</v>
       </c>
       <c r="B432" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C432">
         <v>146</v>
@@ -9583,7 +9583,7 @@
         <v>1</v>
       </c>
       <c r="F432" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.2">
@@ -9591,7 +9591,7 @@
         <v>43753</v>
       </c>
       <c r="B433" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C433">
         <v>146</v>
@@ -9603,7 +9603,7 @@
         <v>2</v>
       </c>
       <c r="F433" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.2">
@@ -9611,7 +9611,7 @@
         <v>43753</v>
       </c>
       <c r="B434" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C434">
         <v>146</v>
@@ -9623,7 +9623,7 @@
         <v>3</v>
       </c>
       <c r="F434" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.2">
@@ -9631,7 +9631,7 @@
         <v>43753</v>
       </c>
       <c r="B435" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C435">
         <v>146</v>
@@ -9643,7 +9643,7 @@
         <v>4</v>
       </c>
       <c r="F435" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.2">
@@ -9651,7 +9651,7 @@
         <v>43753</v>
       </c>
       <c r="B436" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C436">
         <v>146</v>
@@ -9663,7 +9663,7 @@
         <v>5</v>
       </c>
       <c r="F436" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.2">
@@ -9671,7 +9671,7 @@
         <v>43753</v>
       </c>
       <c r="B437" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C437">
         <v>146</v>
@@ -9683,7 +9683,7 @@
         <v>1</v>
       </c>
       <c r="F437" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.2">
@@ -9691,7 +9691,7 @@
         <v>43753</v>
       </c>
       <c r="B438" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C438">
         <v>146</v>
@@ -9703,7 +9703,7 @@
         <v>2</v>
       </c>
       <c r="F438" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.2">
@@ -9711,7 +9711,7 @@
         <v>43753</v>
       </c>
       <c r="B439" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C439">
         <v>146</v>
@@ -9723,7 +9723,7 @@
         <v>3</v>
       </c>
       <c r="F439" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.2">
@@ -9731,7 +9731,7 @@
         <v>43753</v>
       </c>
       <c r="B440" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C440">
         <v>146</v>
@@ -9743,7 +9743,7 @@
         <v>4</v>
       </c>
       <c r="F440" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.2">
@@ -9751,7 +9751,7 @@
         <v>43753</v>
       </c>
       <c r="B441" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C441">
         <v>146</v>
@@ -9763,7 +9763,7 @@
         <v>5</v>
       </c>
       <c r="F441" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.2">
@@ -9771,7 +9771,7 @@
         <v>43753</v>
       </c>
       <c r="B442" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C442">
         <v>146</v>
@@ -9783,7 +9783,7 @@
         <v>1</v>
       </c>
       <c r="F442" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.2">
@@ -9791,7 +9791,7 @@
         <v>43753</v>
       </c>
       <c r="B443" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C443">
         <v>146</v>
@@ -9803,7 +9803,7 @@
         <v>2</v>
       </c>
       <c r="F443" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.2">
@@ -9811,7 +9811,7 @@
         <v>43753</v>
       </c>
       <c r="B444" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C444">
         <v>146</v>
@@ -9831,7 +9831,7 @@
         <v>43753</v>
       </c>
       <c r="B445" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C445">
         <v>146</v>
@@ -9843,7 +9843,7 @@
         <v>4</v>
       </c>
       <c r="F445" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.2">
@@ -9851,7 +9851,7 @@
         <v>43753</v>
       </c>
       <c r="B446" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C446">
         <v>146</v>
@@ -9863,7 +9863,7 @@
         <v>5</v>
       </c>
       <c r="F446" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.2">
@@ -9871,7 +9871,7 @@
         <v>43753</v>
       </c>
       <c r="B447" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C447">
         <v>146</v>
@@ -9891,7 +9891,7 @@
         <v>43753</v>
       </c>
       <c r="B448" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C448">
         <v>146</v>
@@ -9903,7 +9903,7 @@
         <v>2</v>
       </c>
       <c r="F448" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.2">
@@ -9911,7 +9911,7 @@
         <v>43753</v>
       </c>
       <c r="B449" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C449">
         <v>146</v>
@@ -9931,7 +9931,7 @@
         <v>43753</v>
       </c>
       <c r="B450" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C450">
         <v>146</v>
@@ -9951,7 +9951,7 @@
         <v>43753</v>
       </c>
       <c r="B451" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C451">
         <v>146</v>
@@ -9963,7 +9963,7 @@
         <v>5</v>
       </c>
       <c r="F451" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.2">
@@ -9971,7 +9971,7 @@
         <v>43753</v>
       </c>
       <c r="B452" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C452">
         <v>146</v>
@@ -9983,7 +9983,7 @@
         <v>1</v>
       </c>
       <c r="F452" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.2">
@@ -9991,7 +9991,7 @@
         <v>43753</v>
       </c>
       <c r="B453" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C453">
         <v>146</v>
@@ -10011,7 +10011,7 @@
         <v>43753</v>
       </c>
       <c r="B454" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C454">
         <v>146</v>
@@ -10023,7 +10023,7 @@
         <v>3</v>
       </c>
       <c r="F454" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.2">
@@ -10031,7 +10031,7 @@
         <v>43753</v>
       </c>
       <c r="B455" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C455">
         <v>146</v>
@@ -10043,7 +10043,7 @@
         <v>4</v>
       </c>
       <c r="F455" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.2">
@@ -10051,7 +10051,7 @@
         <v>43753</v>
       </c>
       <c r="B456" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C456">
         <v>146</v>
@@ -10063,7 +10063,7 @@
         <v>5</v>
       </c>
       <c r="F456" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.2">
@@ -10071,7 +10071,7 @@
         <v>43753</v>
       </c>
       <c r="B457" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C457">
         <v>146</v>
@@ -10091,7 +10091,7 @@
         <v>43753</v>
       </c>
       <c r="B458" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C458">
         <v>146</v>
@@ -10111,7 +10111,7 @@
         <v>43753</v>
       </c>
       <c r="B459" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C459">
         <v>146</v>
@@ -10131,7 +10131,7 @@
         <v>43753</v>
       </c>
       <c r="B460" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C460">
         <v>146</v>
@@ -10151,7 +10151,7 @@
         <v>43753</v>
       </c>
       <c r="B461" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C461">
         <v>146</v>
@@ -10171,7 +10171,7 @@
         <v>43753</v>
       </c>
       <c r="B462" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C462">
         <v>146</v>
@@ -10191,7 +10191,7 @@
         <v>43753</v>
       </c>
       <c r="B463" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C463">
         <v>146</v>
@@ -10203,7 +10203,7 @@
         <v>2</v>
       </c>
       <c r="F463" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.2">
@@ -10211,7 +10211,7 @@
         <v>43753</v>
       </c>
       <c r="B464" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C464">
         <v>146</v>
@@ -10231,7 +10231,7 @@
         <v>43753</v>
       </c>
       <c r="B465" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C465">
         <v>146</v>
@@ -10243,7 +10243,7 @@
         <v>4</v>
       </c>
       <c r="F465" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="466" spans="1:8" x14ac:dyDescent="0.2">
@@ -10251,7 +10251,7 @@
         <v>43753</v>
       </c>
       <c r="B466" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C466">
         <v>146</v>
@@ -10263,7 +10263,7 @@
         <v>5</v>
       </c>
       <c r="F466" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="467" spans="1:8" x14ac:dyDescent="0.2">
@@ -10271,7 +10271,7 @@
         <v>43753</v>
       </c>
       <c r="B467" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C467">
         <v>146</v>
@@ -10291,7 +10291,7 @@
         <v>43753</v>
       </c>
       <c r="B468" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C468">
         <v>146</v>
@@ -10311,7 +10311,7 @@
         <v>43753</v>
       </c>
       <c r="B469" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C469">
         <v>146</v>
@@ -10331,7 +10331,7 @@
         <v>43753</v>
       </c>
       <c r="B470" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C470">
         <v>146</v>
@@ -10351,7 +10351,7 @@
         <v>43753</v>
       </c>
       <c r="B471" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C471">
         <v>146</v>
@@ -10371,7 +10371,7 @@
         <v>43753</v>
       </c>
       <c r="B472" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C472">
         <v>146</v>
@@ -10391,7 +10391,7 @@
         <v>43753</v>
       </c>
       <c r="B473" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C473">
         <v>146</v>
@@ -10411,7 +10411,7 @@
         <v>43753</v>
       </c>
       <c r="B474" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C474">
         <v>146</v>
@@ -10431,7 +10431,7 @@
         <v>43753</v>
       </c>
       <c r="B475" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C475">
         <v>146</v>
@@ -10451,7 +10451,7 @@
         <v>43753</v>
       </c>
       <c r="B476" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C476">
         <v>146</v>
@@ -10471,7 +10471,7 @@
         <v>43755</v>
       </c>
       <c r="B477" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C477">
         <v>148</v>
@@ -10483,10 +10483,10 @@
         <v>1</v>
       </c>
       <c r="F477" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H477" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="478" spans="1:8" x14ac:dyDescent="0.2">
@@ -10494,7 +10494,7 @@
         <v>43755</v>
       </c>
       <c r="B478" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C478">
         <v>148</v>
@@ -10506,7 +10506,7 @@
         <v>2</v>
       </c>
       <c r="F478" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="479" spans="1:8" x14ac:dyDescent="0.2">
@@ -10514,7 +10514,7 @@
         <v>43755</v>
       </c>
       <c r="B479" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C479">
         <v>148</v>
@@ -10526,7 +10526,7 @@
         <v>3</v>
       </c>
       <c r="F479" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="480" spans="1:8" x14ac:dyDescent="0.2">
@@ -10534,7 +10534,7 @@
         <v>43755</v>
       </c>
       <c r="B480" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C480">
         <v>148</v>
@@ -10546,7 +10546,7 @@
         <v>4</v>
       </c>
       <c r="F480" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.2">
@@ -10554,7 +10554,7 @@
         <v>43755</v>
       </c>
       <c r="B481" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C481">
         <v>148</v>
@@ -10566,7 +10566,7 @@
         <v>5</v>
       </c>
       <c r="F481" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.2">
@@ -10574,7 +10574,7 @@
         <v>43755</v>
       </c>
       <c r="B482" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C482">
         <v>148</v>
@@ -10594,7 +10594,7 @@
         <v>43755</v>
       </c>
       <c r="B483" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C483">
         <v>148</v>
@@ -10614,7 +10614,7 @@
         <v>43755</v>
       </c>
       <c r="B484" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C484">
         <v>148</v>
@@ -10634,7 +10634,7 @@
         <v>43755</v>
       </c>
       <c r="B485" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C485">
         <v>148</v>
@@ -10654,7 +10654,7 @@
         <v>43755</v>
       </c>
       <c r="B486" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C486">
         <v>148</v>
@@ -10674,7 +10674,7 @@
         <v>43755</v>
       </c>
       <c r="B487" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C487">
         <v>148</v>
@@ -10694,7 +10694,7 @@
         <v>43755</v>
       </c>
       <c r="B488" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C488">
         <v>148</v>
@@ -10714,7 +10714,7 @@
         <v>43755</v>
       </c>
       <c r="B489" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C489">
         <v>148</v>
@@ -10734,7 +10734,7 @@
         <v>43755</v>
       </c>
       <c r="B490" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C490">
         <v>148</v>
@@ -10754,7 +10754,7 @@
         <v>43755</v>
       </c>
       <c r="B491" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C491">
         <v>148</v>
@@ -10774,7 +10774,7 @@
         <v>43755</v>
       </c>
       <c r="B492" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C492">
         <v>148</v>
@@ -10786,7 +10786,7 @@
         <v>1</v>
       </c>
       <c r="F492" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.2">
@@ -10794,7 +10794,7 @@
         <v>43755</v>
       </c>
       <c r="B493" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C493">
         <v>148</v>
@@ -10806,7 +10806,7 @@
         <v>2</v>
       </c>
       <c r="F493" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.2">
@@ -10814,7 +10814,7 @@
         <v>43755</v>
       </c>
       <c r="B494" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C494">
         <v>148</v>
@@ -10826,7 +10826,7 @@
         <v>3</v>
       </c>
       <c r="F494" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.2">
@@ -10834,7 +10834,7 @@
         <v>43755</v>
       </c>
       <c r="B495" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C495">
         <v>148</v>
@@ -10846,7 +10846,7 @@
         <v>4</v>
       </c>
       <c r="F495" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.2">
@@ -10854,7 +10854,7 @@
         <v>43755</v>
       </c>
       <c r="B496" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C496">
         <v>148</v>
@@ -10866,7 +10866,7 @@
         <v>5</v>
       </c>
       <c r="F496" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="497" spans="1:7" x14ac:dyDescent="0.2">
@@ -10874,7 +10874,7 @@
         <v>43755</v>
       </c>
       <c r="B497" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C497">
         <v>148</v>
@@ -10894,7 +10894,7 @@
         <v>43755</v>
       </c>
       <c r="B498" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C498">
         <v>148</v>
@@ -10914,7 +10914,7 @@
         <v>43755</v>
       </c>
       <c r="B499" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C499">
         <v>148</v>
@@ -10934,7 +10934,7 @@
         <v>43755</v>
       </c>
       <c r="B500" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C500">
         <v>148</v>
@@ -10949,7 +10949,7 @@
         <v>3</v>
       </c>
       <c r="G500" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="501" spans="1:7" x14ac:dyDescent="0.2">
@@ -10957,7 +10957,7 @@
         <v>43755</v>
       </c>
       <c r="B501" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C501">
         <v>148</v>
@@ -10977,7 +10977,7 @@
         <v>43755</v>
       </c>
       <c r="B502" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C502">
         <v>148</v>
@@ -10989,7 +10989,7 @@
         <v>1</v>
       </c>
       <c r="F502" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="503" spans="1:7" x14ac:dyDescent="0.2">
@@ -10997,7 +10997,7 @@
         <v>43755</v>
       </c>
       <c r="B503" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C503">
         <v>148</v>
@@ -11009,7 +11009,7 @@
         <v>2</v>
       </c>
       <c r="F503" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="504" spans="1:7" x14ac:dyDescent="0.2">
@@ -11017,7 +11017,7 @@
         <v>43755</v>
       </c>
       <c r="B504" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C504">
         <v>148</v>
@@ -11029,7 +11029,7 @@
         <v>3</v>
       </c>
       <c r="F504" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="505" spans="1:7" x14ac:dyDescent="0.2">
@@ -11037,7 +11037,7 @@
         <v>43755</v>
       </c>
       <c r="B505" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C505">
         <v>148</v>
@@ -11057,7 +11057,7 @@
         <v>43755</v>
       </c>
       <c r="B506" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C506">
         <v>148</v>
@@ -11069,7 +11069,7 @@
         <v>5</v>
       </c>
       <c r="F506" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="507" spans="1:7" x14ac:dyDescent="0.2">
@@ -11077,7 +11077,7 @@
         <v>43755</v>
       </c>
       <c r="B507" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C507">
         <v>147</v>
@@ -11097,7 +11097,7 @@
         <v>43755</v>
       </c>
       <c r="B508" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C508">
         <v>147</v>
@@ -11117,7 +11117,7 @@
         <v>43755</v>
       </c>
       <c r="B509" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C509">
         <v>147</v>
@@ -11137,7 +11137,7 @@
         <v>43755</v>
       </c>
       <c r="B510" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C510">
         <v>147</v>
@@ -11157,7 +11157,7 @@
         <v>43755</v>
       </c>
       <c r="B511" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C511">
         <v>147</v>
@@ -11177,7 +11177,7 @@
         <v>43755</v>
       </c>
       <c r="B512" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C512">
         <v>148</v>
@@ -11197,7 +11197,7 @@
         <v>43755</v>
       </c>
       <c r="B513" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C513">
         <v>148</v>
@@ -11209,7 +11209,7 @@
         <v>2</v>
       </c>
       <c r="F513" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.2">
@@ -11217,7 +11217,7 @@
         <v>43755</v>
       </c>
       <c r="B514" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C514">
         <v>148</v>
@@ -11237,7 +11237,7 @@
         <v>43755</v>
       </c>
       <c r="B515" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C515">
         <v>148</v>
@@ -11249,7 +11249,7 @@
         <v>4</v>
       </c>
       <c r="F515" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.2">
@@ -11257,7 +11257,7 @@
         <v>43755</v>
       </c>
       <c r="B516" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C516">
         <v>148</v>
@@ -11269,7 +11269,7 @@
         <v>5</v>
       </c>
       <c r="F516" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.2">
@@ -11277,7 +11277,7 @@
         <v>43755</v>
       </c>
       <c r="B517" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C517">
         <v>148</v>
@@ -11289,7 +11289,7 @@
         <v>1</v>
       </c>
       <c r="F517" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.2">
@@ -11297,7 +11297,7 @@
         <v>43755</v>
       </c>
       <c r="B518" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C518">
         <v>148</v>
@@ -11309,7 +11309,7 @@
         <v>2</v>
       </c>
       <c r="F518" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.2">
@@ -11317,7 +11317,7 @@
         <v>43755</v>
       </c>
       <c r="B519" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C519">
         <v>148</v>
@@ -11329,7 +11329,7 @@
         <v>3</v>
       </c>
       <c r="F519" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.2">
@@ -11337,7 +11337,7 @@
         <v>43755</v>
       </c>
       <c r="B520" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C520">
         <v>148</v>
@@ -11349,7 +11349,7 @@
         <v>4</v>
       </c>
       <c r="F520" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.2">
@@ -11357,7 +11357,7 @@
         <v>43755</v>
       </c>
       <c r="B521" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C521">
         <v>148</v>
@@ -11369,7 +11369,7 @@
         <v>5</v>
       </c>
       <c r="F521" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="522" spans="1:6" x14ac:dyDescent="0.2">
@@ -11377,7 +11377,7 @@
         <v>43755</v>
       </c>
       <c r="B522" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C522">
         <v>148</v>
@@ -11389,7 +11389,7 @@
         <v>1</v>
       </c>
       <c r="F522" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="523" spans="1:6" x14ac:dyDescent="0.2">
@@ -11397,7 +11397,7 @@
         <v>43755</v>
       </c>
       <c r="B523" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C523">
         <v>148</v>
@@ -11409,7 +11409,7 @@
         <v>2</v>
       </c>
       <c r="F523" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.2">
@@ -11417,7 +11417,7 @@
         <v>43755</v>
       </c>
       <c r="B524" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C524">
         <v>148</v>
@@ -11429,7 +11429,7 @@
         <v>3</v>
       </c>
       <c r="F524" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.2">
@@ -11437,7 +11437,7 @@
         <v>43755</v>
       </c>
       <c r="B525" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C525">
         <v>148</v>
@@ -11449,7 +11449,7 @@
         <v>4</v>
       </c>
       <c r="F525" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.2">
@@ -11457,7 +11457,7 @@
         <v>43755</v>
       </c>
       <c r="B526" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C526">
         <v>148</v>
@@ -11469,7 +11469,7 @@
         <v>5</v>
       </c>
       <c r="F526" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="527" spans="1:6" x14ac:dyDescent="0.2">
@@ -11477,7 +11477,7 @@
         <v>43755</v>
       </c>
       <c r="B527" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C527">
         <v>148</v>
@@ -11489,7 +11489,7 @@
         <v>1</v>
       </c>
       <c r="F527" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="528" spans="1:6" x14ac:dyDescent="0.2">
@@ -11497,7 +11497,7 @@
         <v>43755</v>
       </c>
       <c r="B528" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C528">
         <v>148</v>
@@ -11509,7 +11509,7 @@
         <v>2</v>
       </c>
       <c r="F528" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.2">
@@ -11517,7 +11517,7 @@
         <v>43755</v>
       </c>
       <c r="B529" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C529">
         <v>148</v>
@@ -11529,7 +11529,7 @@
         <v>3</v>
       </c>
       <c r="F529" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.2">
@@ -11537,7 +11537,7 @@
         <v>43755</v>
       </c>
       <c r="B530" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C530">
         <v>148</v>
@@ -11549,7 +11549,7 @@
         <v>4</v>
       </c>
       <c r="F530" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="531" spans="1:6" x14ac:dyDescent="0.2">
@@ -11557,7 +11557,7 @@
         <v>43755</v>
       </c>
       <c r="B531" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C531">
         <v>148</v>
@@ -11569,7 +11569,7 @@
         <v>5</v>
       </c>
       <c r="F531" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.2">
@@ -11577,13 +11577,13 @@
         <v>43755</v>
       </c>
       <c r="B532" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C532">
         <v>147</v>
       </c>
       <c r="D532" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E532">
         <v>1</v>
@@ -11597,13 +11597,13 @@
         <v>43755</v>
       </c>
       <c r="B533" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C533">
         <v>147</v>
       </c>
       <c r="D533" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E533">
         <v>2</v>
@@ -11617,13 +11617,13 @@
         <v>43755</v>
       </c>
       <c r="B534" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C534">
         <v>147</v>
       </c>
       <c r="D534" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E534">
         <v>3</v>
@@ -11637,13 +11637,13 @@
         <v>43755</v>
       </c>
       <c r="B535" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C535">
         <v>147</v>
       </c>
       <c r="D535" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E535">
         <v>4</v>
@@ -11657,13 +11657,13 @@
         <v>43755</v>
       </c>
       <c r="B536" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C536">
         <v>147</v>
       </c>
       <c r="D536" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E536">
         <v>5</v>
@@ -11677,7 +11677,7 @@
         <v>43755</v>
       </c>
       <c r="B537" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C537">
         <v>147</v>
@@ -11689,7 +11689,7 @@
         <v>1</v>
       </c>
       <c r="F537" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.2">
@@ -11697,7 +11697,7 @@
         <v>43755</v>
       </c>
       <c r="B538" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C538">
         <v>147</v>
@@ -11709,7 +11709,7 @@
         <v>2</v>
       </c>
       <c r="F538" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.2">
@@ -11717,7 +11717,7 @@
         <v>43755</v>
       </c>
       <c r="B539" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C539">
         <v>147</v>
@@ -11737,7 +11737,7 @@
         <v>43755</v>
       </c>
       <c r="B540" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C540">
         <v>147</v>
@@ -11749,7 +11749,7 @@
         <v>4</v>
       </c>
       <c r="F540" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.2">
@@ -11757,7 +11757,7 @@
         <v>43755</v>
       </c>
       <c r="B541" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C541">
         <v>147</v>
@@ -11769,7 +11769,7 @@
         <v>5</v>
       </c>
       <c r="F541" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="542" spans="1:6" x14ac:dyDescent="0.2">
@@ -11777,7 +11777,7 @@
         <v>43755</v>
       </c>
       <c r="B542" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C542">
         <v>147</v>
@@ -11797,7 +11797,7 @@
         <v>43755</v>
       </c>
       <c r="B543" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C543">
         <v>147</v>
@@ -11809,7 +11809,7 @@
         <v>2</v>
       </c>
       <c r="F543" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="544" spans="1:6" x14ac:dyDescent="0.2">
@@ -11817,7 +11817,7 @@
         <v>43755</v>
       </c>
       <c r="B544" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C544">
         <v>147</v>
@@ -11829,7 +11829,7 @@
         <v>3</v>
       </c>
       <c r="F544" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="545" spans="1:6" x14ac:dyDescent="0.2">
@@ -11837,7 +11837,7 @@
         <v>43755</v>
       </c>
       <c r="B545" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C545">
         <v>147</v>
@@ -11849,7 +11849,7 @@
         <v>4</v>
       </c>
       <c r="F545" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="546" spans="1:6" x14ac:dyDescent="0.2">
@@ -11857,7 +11857,7 @@
         <v>43755</v>
       </c>
       <c r="B546" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C546">
         <v>147</v>
@@ -11877,7 +11877,7 @@
         <v>43755</v>
       </c>
       <c r="B547" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C547">
         <v>147</v>
@@ -11889,7 +11889,7 @@
         <v>1</v>
       </c>
       <c r="F547" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="548" spans="1:6" x14ac:dyDescent="0.2">
@@ -11897,7 +11897,7 @@
         <v>43755</v>
       </c>
       <c r="B548" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C548">
         <v>147</v>
@@ -11917,7 +11917,7 @@
         <v>43755</v>
       </c>
       <c r="B549" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C549">
         <v>147</v>
@@ -11937,7 +11937,7 @@
         <v>43755</v>
       </c>
       <c r="B550" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C550">
         <v>147</v>
@@ -11949,7 +11949,7 @@
         <v>4</v>
       </c>
       <c r="F550" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="551" spans="1:6" x14ac:dyDescent="0.2">
@@ -11957,7 +11957,7 @@
         <v>43755</v>
       </c>
       <c r="B551" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C551">
         <v>147</v>
@@ -11977,13 +11977,13 @@
         <v>43755</v>
       </c>
       <c r="B552" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C552">
         <v>147</v>
       </c>
       <c r="D552" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E552">
         <v>1</v>
@@ -11997,13 +11997,13 @@
         <v>43755</v>
       </c>
       <c r="B553" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C553">
         <v>147</v>
       </c>
       <c r="D553" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E553">
         <v>2</v>
@@ -12017,13 +12017,13 @@
         <v>43755</v>
       </c>
       <c r="B554" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C554">
         <v>147</v>
       </c>
       <c r="D554" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E554">
         <v>3</v>
@@ -12037,13 +12037,13 @@
         <v>43755</v>
       </c>
       <c r="B555" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C555">
         <v>147</v>
       </c>
       <c r="D555" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E555">
         <v>4</v>
@@ -12057,13 +12057,13 @@
         <v>43755</v>
       </c>
       <c r="B556" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C556">
         <v>147</v>
       </c>
       <c r="D556" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E556">
         <v>5</v>
@@ -12077,7 +12077,7 @@
         <v>43755</v>
       </c>
       <c r="B557" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C557">
         <v>147</v>
@@ -12097,7 +12097,7 @@
         <v>43755</v>
       </c>
       <c r="B558" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C558">
         <v>147</v>
@@ -12117,7 +12117,7 @@
         <v>43755</v>
       </c>
       <c r="B559" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C559">
         <v>147</v>
@@ -12137,7 +12137,7 @@
         <v>43755</v>
       </c>
       <c r="B560" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C560">
         <v>147</v>
@@ -12157,7 +12157,7 @@
         <v>43755</v>
       </c>
       <c r="B561" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C561">
         <v>147</v>
@@ -12177,7 +12177,7 @@
         <v>43755</v>
       </c>
       <c r="B562" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C562">
         <v>147</v>
@@ -12197,7 +12197,7 @@
         <v>43755</v>
       </c>
       <c r="B563" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C563">
         <v>147</v>
@@ -12209,7 +12209,7 @@
         <v>2</v>
       </c>
       <c r="F563" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="564" spans="1:6" x14ac:dyDescent="0.2">
@@ -12217,7 +12217,7 @@
         <v>43755</v>
       </c>
       <c r="B564" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C564">
         <v>147</v>
@@ -12237,7 +12237,7 @@
         <v>43755</v>
       </c>
       <c r="B565" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C565">
         <v>147</v>
@@ -12257,7 +12257,7 @@
         <v>43755</v>
       </c>
       <c r="B566" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C566">
         <v>147</v>
@@ -12277,7 +12277,7 @@
         <v>43755</v>
       </c>
       <c r="B567" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C567">
         <v>147</v>
@@ -12289,7 +12289,7 @@
         <v>1</v>
       </c>
       <c r="F567" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="568" spans="1:6" x14ac:dyDescent="0.2">
@@ -12297,7 +12297,7 @@
         <v>43755</v>
       </c>
       <c r="B568" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C568">
         <v>147</v>
@@ -12317,7 +12317,7 @@
         <v>43755</v>
       </c>
       <c r="B569" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C569">
         <v>147</v>
@@ -12329,7 +12329,7 @@
         <v>3</v>
       </c>
       <c r="F569" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="570" spans="1:6" x14ac:dyDescent="0.2">
@@ -12337,7 +12337,7 @@
         <v>43755</v>
       </c>
       <c r="B570" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C570">
         <v>147</v>
@@ -12357,7 +12357,7 @@
         <v>43755</v>
       </c>
       <c r="B571" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C571">
         <v>147</v>

--- a/data/tle/2019-10-17_ALL.xlsx
+++ b/data/tle/2019-10-17_ALL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrcunning/Projects/bsrte/data/tle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5494EDE9-90E0-A542-8301-19D38E20419D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2225CF9B-5D1E-0049-9C00-F8653E60D5BD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="23000" windowHeight="17240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="166">
   <si>
     <t>Date</t>
   </si>
@@ -420,9 +420,6 @@
     <t>10,2,1</t>
   </si>
   <si>
-    <t>9,3,2</t>
-  </si>
-  <si>
     <t>9,3</t>
   </si>
   <si>
@@ -459,9 +456,6 @@
     <t>15,5</t>
   </si>
   <si>
-    <t>17,5,2,1</t>
-  </si>
-  <si>
     <t>13,1</t>
   </si>
   <si>
@@ -523,6 +517,9 @@
   </si>
   <si>
     <t>10, 2, 4</t>
+  </si>
+  <si>
+    <t>17,5,1</t>
   </si>
 </sst>
 </file>
@@ -926,8 +923,8 @@
   <dimension ref="A1:H571"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F50" sqref="F50"/>
+      <pane ySplit="1" topLeftCell="A528" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G542" sqref="G542"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -948,10 +945,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>2</v>
@@ -965,7 +962,7 @@
         <v>43750</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C2">
         <v>137</v>
@@ -985,7 +982,7 @@
         <v>43750</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C3">
         <v>137</v>
@@ -1005,7 +1002,7 @@
         <v>43750</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C4">
         <v>137</v>
@@ -1025,7 +1022,7 @@
         <v>43750</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C5">
         <v>137</v>
@@ -1045,7 +1042,7 @@
         <v>43750</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C6">
         <v>137</v>
@@ -1065,7 +1062,7 @@
         <v>43750</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C7">
         <v>137</v>
@@ -1085,7 +1082,7 @@
         <v>43750</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C8">
         <v>137</v>
@@ -1105,7 +1102,7 @@
         <v>43750</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C9">
         <v>137</v>
@@ -1125,7 +1122,7 @@
         <v>43750</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C10">
         <v>137</v>
@@ -1145,7 +1142,7 @@
         <v>43750</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C11">
         <v>137</v>
@@ -1165,7 +1162,7 @@
         <v>43750</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C12">
         <v>137</v>
@@ -1185,7 +1182,7 @@
         <v>43750</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C13">
         <v>137</v>
@@ -1205,7 +1202,7 @@
         <v>43750</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C14">
         <v>137</v>
@@ -1225,7 +1222,7 @@
         <v>43750</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C15">
         <v>137</v>
@@ -1245,7 +1242,7 @@
         <v>43750</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C16">
         <v>137</v>
@@ -1265,7 +1262,7 @@
         <v>43750</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C17">
         <v>137</v>
@@ -1285,7 +1282,7 @@
         <v>43750</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C18">
         <v>137</v>
@@ -1305,7 +1302,7 @@
         <v>43750</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C19">
         <v>137</v>
@@ -1325,7 +1322,7 @@
         <v>43750</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C20">
         <v>137</v>
@@ -1345,7 +1342,7 @@
         <v>43750</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C21">
         <v>137</v>
@@ -1365,7 +1362,7 @@
         <v>43750</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C22">
         <v>137</v>
@@ -1385,7 +1382,7 @@
         <v>43750</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C23">
         <v>137</v>
@@ -1405,7 +1402,7 @@
         <v>43750</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C24">
         <v>137</v>
@@ -1425,7 +1422,7 @@
         <v>43750</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C25">
         <v>137</v>
@@ -1445,7 +1442,7 @@
         <v>43750</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C26">
         <v>137</v>
@@ -1465,7 +1462,7 @@
         <v>43750</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C27">
         <v>137</v>
@@ -1477,7 +1474,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1485,7 +1482,7 @@
         <v>43750</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C28">
         <v>137</v>
@@ -1505,7 +1502,7 @@
         <v>43750</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C29">
         <v>137</v>
@@ -1525,7 +1522,7 @@
         <v>43750</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C30">
         <v>137</v>
@@ -1537,7 +1534,7 @@
         <v>4</v>
       </c>
       <c r="F30" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1545,7 +1542,7 @@
         <v>43750</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C31">
         <v>137</v>
@@ -1565,7 +1562,7 @@
         <v>43750</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C32">
         <v>137</v>
@@ -1585,7 +1582,7 @@
         <v>43750</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C33">
         <v>137</v>
@@ -1605,7 +1602,7 @@
         <v>43750</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C34">
         <v>137</v>
@@ -1625,7 +1622,7 @@
         <v>43750</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C35">
         <v>137</v>
@@ -1645,7 +1642,7 @@
         <v>43750</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C36">
         <v>137</v>
@@ -1665,7 +1662,7 @@
         <v>43750</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C37">
         <v>137</v>
@@ -1685,7 +1682,7 @@
         <v>43750</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C38">
         <v>137</v>
@@ -1705,7 +1702,7 @@
         <v>43750</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C39">
         <v>137</v>
@@ -1725,7 +1722,7 @@
         <v>43750</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C40">
         <v>137</v>
@@ -1745,7 +1742,7 @@
         <v>43750</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C41">
         <v>137</v>
@@ -1765,7 +1762,7 @@
         <v>43750</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C42">
         <v>137</v>
@@ -1785,7 +1782,7 @@
         <v>43750</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C43">
         <v>137</v>
@@ -1805,7 +1802,7 @@
         <v>43750</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C44">
         <v>137</v>
@@ -1825,7 +1822,7 @@
         <v>43750</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C45">
         <v>137</v>
@@ -1845,7 +1842,7 @@
         <v>43750</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C46">
         <v>137</v>
@@ -1865,7 +1862,7 @@
         <v>43750</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C47">
         <v>138</v>
@@ -1885,7 +1882,7 @@
         <v>43750</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C48">
         <v>138</v>
@@ -1905,7 +1902,7 @@
         <v>43750</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C49">
         <v>138</v>
@@ -1925,7 +1922,7 @@
         <v>43750</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C50">
         <v>138</v>
@@ -1937,7 +1934,7 @@
         <v>4</v>
       </c>
       <c r="F50" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -1945,7 +1942,7 @@
         <v>43750</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C51">
         <v>138</v>
@@ -1957,7 +1954,7 @@
         <v>5</v>
       </c>
       <c r="F51" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -1965,7 +1962,7 @@
         <v>43750</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C52">
         <v>138</v>
@@ -1985,7 +1982,7 @@
         <v>43750</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C53">
         <v>138</v>
@@ -2005,7 +2002,7 @@
         <v>43750</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C54">
         <v>138</v>
@@ -2025,7 +2022,7 @@
         <v>43750</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C55">
         <v>138</v>
@@ -2045,7 +2042,7 @@
         <v>43750</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C56">
         <v>138</v>
@@ -2065,7 +2062,7 @@
         <v>43750</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C57">
         <v>138</v>
@@ -2085,7 +2082,7 @@
         <v>43750</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C58">
         <v>138</v>
@@ -2105,7 +2102,7 @@
         <v>43750</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C59">
         <v>138</v>
@@ -2117,7 +2114,7 @@
         <v>3</v>
       </c>
       <c r="F59" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -2125,7 +2122,7 @@
         <v>43750</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C60">
         <v>138</v>
@@ -2145,7 +2142,7 @@
         <v>43750</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C61">
         <v>138</v>
@@ -2165,7 +2162,7 @@
         <v>43750</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C62">
         <v>138</v>
@@ -2185,7 +2182,7 @@
         <v>43750</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C63">
         <v>138</v>
@@ -2205,7 +2202,7 @@
         <v>43750</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C64">
         <v>138</v>
@@ -2225,7 +2222,7 @@
         <v>43750</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C65">
         <v>138</v>
@@ -2245,7 +2242,7 @@
         <v>43750</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C66">
         <v>138</v>
@@ -2265,7 +2262,7 @@
         <v>43750</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C67">
         <v>138</v>
@@ -2285,7 +2282,7 @@
         <v>43750</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C68">
         <v>138</v>
@@ -2305,7 +2302,7 @@
         <v>43750</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C69">
         <v>138</v>
@@ -2325,7 +2322,7 @@
         <v>43750</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C70">
         <v>138</v>
@@ -2345,7 +2342,7 @@
         <v>43750</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C71">
         <v>138</v>
@@ -2365,7 +2362,7 @@
         <v>43750</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C72">
         <v>138</v>
@@ -2385,7 +2382,7 @@
         <v>43750</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C73">
         <v>138</v>
@@ -2405,7 +2402,7 @@
         <v>43750</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C74">
         <v>138</v>
@@ -2425,7 +2422,7 @@
         <v>43750</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C75">
         <v>138</v>
@@ -2445,7 +2442,7 @@
         <v>43750</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C76">
         <v>138</v>
@@ -2465,7 +2462,7 @@
         <v>43750</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C77">
         <v>138</v>
@@ -2485,7 +2482,7 @@
         <v>43750</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C78">
         <v>138</v>
@@ -2505,7 +2502,7 @@
         <v>43750</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C79">
         <v>138</v>
@@ -2525,7 +2522,7 @@
         <v>43750</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C80">
         <v>138</v>
@@ -2545,7 +2542,7 @@
         <v>43750</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C81">
         <v>138</v>
@@ -2565,7 +2562,7 @@
         <v>43750</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C82">
         <v>138</v>
@@ -2585,7 +2582,7 @@
         <v>43750</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C83">
         <v>138</v>
@@ -2605,7 +2602,7 @@
         <v>43750</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C84">
         <v>138</v>
@@ -2625,7 +2622,7 @@
         <v>43750</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C85">
         <v>138</v>
@@ -2645,7 +2642,7 @@
         <v>43750</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C86">
         <v>138</v>
@@ -2665,7 +2662,7 @@
         <v>43750</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C87">
         <v>138</v>
@@ -2685,7 +2682,7 @@
         <v>43750</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C88">
         <v>138</v>
@@ -2705,7 +2702,7 @@
         <v>43750</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C89">
         <v>138</v>
@@ -2725,7 +2722,7 @@
         <v>43750</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C90">
         <v>138</v>
@@ -2745,7 +2742,7 @@
         <v>43750</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C91">
         <v>138</v>
@@ -2765,7 +2762,7 @@
         <v>43750</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C92">
         <v>138</v>
@@ -2785,7 +2782,7 @@
         <v>43750</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C93">
         <v>138</v>
@@ -2805,7 +2802,7 @@
         <v>43750</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C94">
         <v>138</v>
@@ -2828,7 +2825,7 @@
         <v>43750</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C95">
         <v>138</v>
@@ -2848,7 +2845,7 @@
         <v>43750</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C96">
         <v>138</v>
@@ -2868,7 +2865,7 @@
         <v>43751</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C97">
         <v>143</v>
@@ -2888,7 +2885,7 @@
         <v>43751</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C98">
         <v>143</v>
@@ -2908,7 +2905,7 @@
         <v>43751</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C99">
         <v>143</v>
@@ -2928,7 +2925,7 @@
         <v>43751</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C100">
         <v>143</v>
@@ -2948,7 +2945,7 @@
         <v>43751</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C101">
         <v>143</v>
@@ -2968,7 +2965,7 @@
         <v>43751</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C102">
         <v>143</v>
@@ -2988,7 +2985,7 @@
         <v>43751</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C103">
         <v>143</v>
@@ -3008,7 +3005,7 @@
         <v>43751</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C104">
         <v>143</v>
@@ -3028,7 +3025,7 @@
         <v>43751</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C105">
         <v>143</v>
@@ -3048,7 +3045,7 @@
         <v>43751</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C106">
         <v>143</v>
@@ -3068,7 +3065,7 @@
         <v>43751</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C107">
         <v>143</v>
@@ -3088,7 +3085,7 @@
         <v>43751</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C108">
         <v>143</v>
@@ -3108,7 +3105,7 @@
         <v>43751</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C109">
         <v>143</v>
@@ -3128,7 +3125,7 @@
         <v>43751</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C110">
         <v>143</v>
@@ -3148,7 +3145,7 @@
         <v>43751</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C111">
         <v>143</v>
@@ -3168,7 +3165,7 @@
         <v>43751</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C112">
         <v>143</v>
@@ -3188,7 +3185,7 @@
         <v>43751</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C113">
         <v>143</v>
@@ -3208,7 +3205,7 @@
         <v>43751</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C114">
         <v>143</v>
@@ -3228,7 +3225,7 @@
         <v>43751</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C115">
         <v>143</v>
@@ -3248,7 +3245,7 @@
         <v>43751</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C116">
         <v>143</v>
@@ -3268,7 +3265,7 @@
         <v>43751</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C117">
         <v>143</v>
@@ -3288,7 +3285,7 @@
         <v>43751</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C118">
         <v>143</v>
@@ -3308,7 +3305,7 @@
         <v>43751</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C119">
         <v>143</v>
@@ -3328,7 +3325,7 @@
         <v>43751</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C120">
         <v>143</v>
@@ -3348,7 +3345,7 @@
         <v>43751</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C121">
         <v>143</v>
@@ -3368,7 +3365,7 @@
         <v>43751</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C122">
         <v>143</v>
@@ -3388,7 +3385,7 @@
         <v>43751</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C123">
         <v>143</v>
@@ -3408,7 +3405,7 @@
         <v>43751</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C124">
         <v>143</v>
@@ -3428,7 +3425,7 @@
         <v>43751</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C125">
         <v>143</v>
@@ -3448,7 +3445,7 @@
         <v>43751</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C126">
         <v>143</v>
@@ -3468,7 +3465,7 @@
         <v>43751</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C127">
         <v>143</v>
@@ -3488,7 +3485,7 @@
         <v>43751</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C128">
         <v>143</v>
@@ -3508,7 +3505,7 @@
         <v>43751</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C129">
         <v>143</v>
@@ -3528,7 +3525,7 @@
         <v>43751</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C130">
         <v>143</v>
@@ -3548,7 +3545,7 @@
         <v>43751</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C131">
         <v>143</v>
@@ -3568,13 +3565,13 @@
         <v>43751</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C132">
         <v>143</v>
       </c>
       <c r="D132" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E132">
         <v>1</v>
@@ -3588,13 +3585,13 @@
         <v>43751</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C133">
         <v>143</v>
       </c>
       <c r="D133" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E133">
         <v>2</v>
@@ -3608,13 +3605,13 @@
         <v>43751</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C134">
         <v>143</v>
       </c>
       <c r="D134" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E134">
         <v>3</v>
@@ -3628,13 +3625,13 @@
         <v>43751</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C135">
         <v>143</v>
       </c>
       <c r="D135" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E135">
         <v>4</v>
@@ -3648,13 +3645,13 @@
         <v>43751</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C136">
         <v>143</v>
       </c>
       <c r="D136" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E136">
         <v>5</v>
@@ -3668,7 +3665,7 @@
         <v>43751</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C137">
         <v>143</v>
@@ -3688,7 +3685,7 @@
         <v>43751</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C138">
         <v>143</v>
@@ -3708,7 +3705,7 @@
         <v>43751</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C139">
         <v>143</v>
@@ -3728,7 +3725,7 @@
         <v>43751</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C140">
         <v>143</v>
@@ -3748,7 +3745,7 @@
         <v>43751</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C141">
         <v>143</v>
@@ -3768,7 +3765,7 @@
         <v>43751</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C142">
         <v>144</v>
@@ -3780,7 +3777,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
@@ -3788,7 +3785,7 @@
         <v>43751</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C143">
         <v>144</v>
@@ -3808,7 +3805,7 @@
         <v>43751</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C144">
         <v>144</v>
@@ -3828,7 +3825,7 @@
         <v>43751</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C145">
         <v>144</v>
@@ -3848,7 +3845,7 @@
         <v>43751</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C146">
         <v>144</v>
@@ -3868,7 +3865,7 @@
         <v>43751</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C147">
         <v>144</v>
@@ -3888,7 +3885,7 @@
         <v>43751</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C148">
         <v>144</v>
@@ -3900,7 +3897,7 @@
         <v>2</v>
       </c>
       <c r="F148" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
@@ -3908,7 +3905,7 @@
         <v>43751</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C149">
         <v>144</v>
@@ -3928,7 +3925,7 @@
         <v>43751</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C150">
         <v>144</v>
@@ -3948,7 +3945,7 @@
         <v>43751</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C151">
         <v>144</v>
@@ -3968,7 +3965,7 @@
         <v>43751</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C152">
         <v>144</v>
@@ -3988,7 +3985,7 @@
         <v>43751</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C153">
         <v>144</v>
@@ -4008,7 +4005,7 @@
         <v>43751</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C154">
         <v>144</v>
@@ -4028,7 +4025,7 @@
         <v>43751</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C155">
         <v>144</v>
@@ -4048,7 +4045,7 @@
         <v>43751</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C156">
         <v>144</v>
@@ -4068,7 +4065,7 @@
         <v>43751</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C157">
         <v>144</v>
@@ -4088,7 +4085,7 @@
         <v>43751</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C158">
         <v>144</v>
@@ -4108,7 +4105,7 @@
         <v>43751</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C159">
         <v>144</v>
@@ -4128,7 +4125,7 @@
         <v>43751</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C160">
         <v>144</v>
@@ -4148,7 +4145,7 @@
         <v>43751</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C161">
         <v>144</v>
@@ -4168,7 +4165,7 @@
         <v>43751</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C162">
         <v>144</v>
@@ -4188,7 +4185,7 @@
         <v>43751</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C163">
         <v>144</v>
@@ -4208,7 +4205,7 @@
         <v>43751</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C164">
         <v>144</v>
@@ -4228,7 +4225,7 @@
         <v>43751</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C165">
         <v>144</v>
@@ -4248,7 +4245,7 @@
         <v>43751</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C166">
         <v>144</v>
@@ -4268,7 +4265,7 @@
         <v>43751</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C167">
         <v>144</v>
@@ -4288,7 +4285,7 @@
         <v>43751</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C168">
         <v>144</v>
@@ -4308,7 +4305,7 @@
         <v>43751</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C169">
         <v>144</v>
@@ -4328,7 +4325,7 @@
         <v>43751</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C170">
         <v>144</v>
@@ -4348,7 +4345,7 @@
         <v>43751</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C171">
         <v>144</v>
@@ -4368,7 +4365,7 @@
         <v>43751</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C172">
         <v>144</v>
@@ -4388,7 +4385,7 @@
         <v>43751</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C173">
         <v>144</v>
@@ -4408,7 +4405,7 @@
         <v>43751</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C174">
         <v>144</v>
@@ -4428,7 +4425,7 @@
         <v>43751</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C175">
         <v>144</v>
@@ -4448,7 +4445,7 @@
         <v>43751</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C176">
         <v>144</v>
@@ -4468,7 +4465,7 @@
         <v>43751</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C177">
         <v>144</v>
@@ -4488,7 +4485,7 @@
         <v>43751</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C178">
         <v>144</v>
@@ -4508,7 +4505,7 @@
         <v>43751</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C179">
         <v>144</v>
@@ -4528,7 +4525,7 @@
         <v>43751</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C180">
         <v>144</v>
@@ -4548,7 +4545,7 @@
         <v>43751</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C181">
         <v>144</v>
@@ -4568,7 +4565,7 @@
         <v>43751</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C182">
         <v>144</v>
@@ -4588,7 +4585,7 @@
         <v>43751</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C183">
         <v>144</v>
@@ -4608,7 +4605,7 @@
         <v>43751</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C184">
         <v>144</v>
@@ -4628,7 +4625,7 @@
         <v>43751</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C185">
         <v>144</v>
@@ -4648,7 +4645,7 @@
         <v>43751</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C186">
         <v>144</v>
@@ -4668,7 +4665,7 @@
         <v>43751</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C187">
         <v>144</v>
@@ -4688,7 +4685,7 @@
         <v>43751</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C188">
         <v>144</v>
@@ -4708,7 +4705,7 @@
         <v>43751</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C189">
         <v>144</v>
@@ -4728,7 +4725,7 @@
         <v>43751</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C190">
         <v>144</v>
@@ -4748,7 +4745,7 @@
         <v>43751</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C191">
         <v>144</v>
@@ -4768,7 +4765,7 @@
         <v>43751</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C192">
         <v>141</v>
@@ -4788,7 +4785,7 @@
         <v>43751</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C193">
         <v>141</v>
@@ -4808,7 +4805,7 @@
         <v>43751</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C194">
         <v>141</v>
@@ -4828,7 +4825,7 @@
         <v>43751</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C195">
         <v>141</v>
@@ -4848,7 +4845,7 @@
         <v>43751</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C196">
         <v>141</v>
@@ -4868,7 +4865,7 @@
         <v>43751</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C197">
         <v>141</v>
@@ -4888,7 +4885,7 @@
         <v>43751</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C198">
         <v>141</v>
@@ -4908,7 +4905,7 @@
         <v>43751</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C199">
         <v>141</v>
@@ -4928,7 +4925,7 @@
         <v>43751</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C200">
         <v>141</v>
@@ -4948,7 +4945,7 @@
         <v>43751</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C201">
         <v>141</v>
@@ -4968,7 +4965,7 @@
         <v>43751</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C202">
         <v>141</v>
@@ -4988,7 +4985,7 @@
         <v>43751</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C203">
         <v>141</v>
@@ -5008,7 +5005,7 @@
         <v>43751</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C204">
         <v>141</v>
@@ -5028,7 +5025,7 @@
         <v>43751</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C205">
         <v>141</v>
@@ -5048,7 +5045,7 @@
         <v>43751</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C206">
         <v>141</v>
@@ -5068,7 +5065,7 @@
         <v>43751</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C207">
         <v>141</v>
@@ -5088,7 +5085,7 @@
         <v>43751</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C208">
         <v>141</v>
@@ -5108,7 +5105,7 @@
         <v>43751</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C209">
         <v>141</v>
@@ -5128,7 +5125,7 @@
         <v>43751</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C210">
         <v>141</v>
@@ -5148,7 +5145,7 @@
         <v>43751</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C211">
         <v>141</v>
@@ -5168,7 +5165,7 @@
         <v>43751</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C212">
         <v>141</v>
@@ -5188,7 +5185,7 @@
         <v>43751</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C213">
         <v>141</v>
@@ -5208,7 +5205,7 @@
         <v>43751</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C214">
         <v>141</v>
@@ -5228,7 +5225,7 @@
         <v>43751</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C215">
         <v>141</v>
@@ -5248,7 +5245,7 @@
         <v>43751</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C216">
         <v>141</v>
@@ -5268,7 +5265,7 @@
         <v>43751</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C217">
         <v>141</v>
@@ -5288,7 +5285,7 @@
         <v>43751</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C218">
         <v>141</v>
@@ -5308,7 +5305,7 @@
         <v>43751</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C219">
         <v>141</v>
@@ -5328,7 +5325,7 @@
         <v>43751</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C220">
         <v>141</v>
@@ -5348,7 +5345,7 @@
         <v>43751</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C221">
         <v>141</v>
@@ -5368,7 +5365,7 @@
         <v>43751</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C222">
         <v>141</v>
@@ -5388,7 +5385,7 @@
         <v>43751</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C223">
         <v>141</v>
@@ -5408,7 +5405,7 @@
         <v>43751</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C224">
         <v>141</v>
@@ -5428,7 +5425,7 @@
         <v>43751</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C225">
         <v>141</v>
@@ -5440,7 +5437,7 @@
         <v>4</v>
       </c>
       <c r="F225" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
@@ -5448,7 +5445,7 @@
         <v>43751</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C226">
         <v>141</v>
@@ -5468,13 +5465,13 @@
         <v>43751</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C227">
         <v>141</v>
       </c>
       <c r="D227" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E227">
         <v>1</v>
@@ -5488,13 +5485,13 @@
         <v>43751</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C228">
         <v>141</v>
       </c>
       <c r="D228" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E228">
         <v>2</v>
@@ -5508,13 +5505,13 @@
         <v>43751</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C229">
         <v>141</v>
       </c>
       <c r="D229" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E229">
         <v>3</v>
@@ -5528,13 +5525,13 @@
         <v>43751</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C230">
         <v>141</v>
       </c>
       <c r="D230" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E230">
         <v>4</v>
@@ -5548,13 +5545,13 @@
         <v>43751</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C231">
         <v>141</v>
       </c>
       <c r="D231" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E231">
         <v>5</v>
@@ -5568,7 +5565,7 @@
         <v>43751</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C232">
         <v>141</v>
@@ -5588,7 +5585,7 @@
         <v>43751</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C233">
         <v>141</v>
@@ -5608,7 +5605,7 @@
         <v>43751</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C234">
         <v>141</v>
@@ -5628,7 +5625,7 @@
         <v>43751</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C235">
         <v>141</v>
@@ -5648,7 +5645,7 @@
         <v>43751</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C236">
         <v>141</v>
@@ -5668,7 +5665,7 @@
         <v>43751</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C237">
         <v>142</v>
@@ -5688,7 +5685,7 @@
         <v>43751</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C238">
         <v>142</v>
@@ -5708,7 +5705,7 @@
         <v>43751</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C239">
         <v>142</v>
@@ -5728,7 +5725,7 @@
         <v>43751</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C240">
         <v>142</v>
@@ -5748,7 +5745,7 @@
         <v>43751</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C241">
         <v>142</v>
@@ -5768,7 +5765,7 @@
         <v>43751</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C242">
         <v>142</v>
@@ -5788,7 +5785,7 @@
         <v>43751</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C243">
         <v>142</v>
@@ -5808,7 +5805,7 @@
         <v>43751</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C244">
         <v>142</v>
@@ -5828,7 +5825,7 @@
         <v>43751</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C245">
         <v>142</v>
@@ -5848,7 +5845,7 @@
         <v>43751</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C246">
         <v>142</v>
@@ -5868,7 +5865,7 @@
         <v>43751</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C247">
         <v>142</v>
@@ -5888,7 +5885,7 @@
         <v>43751</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C248">
         <v>142</v>
@@ -5908,7 +5905,7 @@
         <v>43751</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C249">
         <v>142</v>
@@ -5928,7 +5925,7 @@
         <v>43751</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C250">
         <v>142</v>
@@ -5948,7 +5945,7 @@
         <v>43751</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C251">
         <v>142</v>
@@ -5968,7 +5965,7 @@
         <v>43751</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C252">
         <v>142</v>
@@ -5988,7 +5985,7 @@
         <v>43751</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C253">
         <v>142</v>
@@ -6008,7 +6005,7 @@
         <v>43751</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C254">
         <v>142</v>
@@ -6028,7 +6025,7 @@
         <v>43751</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C255">
         <v>142</v>
@@ -6048,7 +6045,7 @@
         <v>43751</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C256">
         <v>142</v>
@@ -6068,7 +6065,7 @@
         <v>43751</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C257">
         <v>142</v>
@@ -6088,7 +6085,7 @@
         <v>43751</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C258">
         <v>142</v>
@@ -6108,7 +6105,7 @@
         <v>43751</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C259">
         <v>142</v>
@@ -6128,7 +6125,7 @@
         <v>43751</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C260">
         <v>142</v>
@@ -6148,7 +6145,7 @@
         <v>43751</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C261">
         <v>142</v>
@@ -6168,7 +6165,7 @@
         <v>43751</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C262">
         <v>142</v>
@@ -6188,7 +6185,7 @@
         <v>43751</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C263">
         <v>142</v>
@@ -6208,7 +6205,7 @@
         <v>43751</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C264">
         <v>142</v>
@@ -6228,7 +6225,7 @@
         <v>43751</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C265">
         <v>142</v>
@@ -6248,7 +6245,7 @@
         <v>43751</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C266">
         <v>142</v>
@@ -6268,7 +6265,7 @@
         <v>43751</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C267">
         <v>142</v>
@@ -6288,7 +6285,7 @@
         <v>43751</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C268">
         <v>142</v>
@@ -6308,7 +6305,7 @@
         <v>43751</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C269">
         <v>142</v>
@@ -6328,7 +6325,7 @@
         <v>43751</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C270">
         <v>142</v>
@@ -6348,7 +6345,7 @@
         <v>43751</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C271">
         <v>142</v>
@@ -6368,7 +6365,7 @@
         <v>43751</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C272">
         <v>142</v>
@@ -6388,7 +6385,7 @@
         <v>43751</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C273">
         <v>142</v>
@@ -6408,7 +6405,7 @@
         <v>43751</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C274">
         <v>142</v>
@@ -6428,7 +6425,7 @@
         <v>43751</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C275">
         <v>142</v>
@@ -6448,7 +6445,7 @@
         <v>43751</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C276">
         <v>142</v>
@@ -6468,7 +6465,7 @@
         <v>43751</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C277">
         <v>142</v>
@@ -6488,7 +6485,7 @@
         <v>43751</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C278">
         <v>142</v>
@@ -6508,7 +6505,7 @@
         <v>43751</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C279">
         <v>142</v>
@@ -6528,7 +6525,7 @@
         <v>43751</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C280">
         <v>142</v>
@@ -6548,7 +6545,7 @@
         <v>43751</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C281">
         <v>142</v>
@@ -6568,7 +6565,7 @@
         <v>43751</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C282">
         <v>142</v>
@@ -6588,7 +6585,7 @@
         <v>43751</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C283">
         <v>142</v>
@@ -6608,7 +6605,7 @@
         <v>43751</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C284">
         <v>142</v>
@@ -6628,7 +6625,7 @@
         <v>43751</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C285">
         <v>142</v>
@@ -6648,7 +6645,7 @@
         <v>43751</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C286">
         <v>142</v>
@@ -6668,7 +6665,7 @@
         <v>43751</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C287">
         <v>139</v>
@@ -6688,7 +6685,7 @@
         <v>43751</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C288">
         <v>139</v>
@@ -6708,7 +6705,7 @@
         <v>43751</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C289">
         <v>139</v>
@@ -6728,7 +6725,7 @@
         <v>43751</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C290">
         <v>139</v>
@@ -6748,7 +6745,7 @@
         <v>43751</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C291">
         <v>139</v>
@@ -6768,7 +6765,7 @@
         <v>43751</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C292">
         <v>139</v>
@@ -6788,7 +6785,7 @@
         <v>43751</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C293">
         <v>139</v>
@@ -6808,7 +6805,7 @@
         <v>43751</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C294">
         <v>139</v>
@@ -6828,7 +6825,7 @@
         <v>43751</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C295">
         <v>139</v>
@@ -6848,7 +6845,7 @@
         <v>43751</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C296">
         <v>139</v>
@@ -6868,7 +6865,7 @@
         <v>43751</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C297">
         <v>139</v>
@@ -6888,7 +6885,7 @@
         <v>43751</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C298">
         <v>139</v>
@@ -6908,7 +6905,7 @@
         <v>43751</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C299">
         <v>139</v>
@@ -6928,7 +6925,7 @@
         <v>43751</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C300">
         <v>139</v>
@@ -6948,7 +6945,7 @@
         <v>43751</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C301">
         <v>139</v>
@@ -6968,7 +6965,7 @@
         <v>43751</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C302">
         <v>139</v>
@@ -6988,7 +6985,7 @@
         <v>43751</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C303">
         <v>139</v>
@@ -7008,7 +7005,7 @@
         <v>43751</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C304">
         <v>139</v>
@@ -7028,7 +7025,7 @@
         <v>43751</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C305">
         <v>139</v>
@@ -7048,7 +7045,7 @@
         <v>43751</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C306">
         <v>139</v>
@@ -7068,7 +7065,7 @@
         <v>43751</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C307">
         <v>139</v>
@@ -7088,7 +7085,7 @@
         <v>43751</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C308">
         <v>139</v>
@@ -7108,7 +7105,7 @@
         <v>43751</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C309">
         <v>139</v>
@@ -7128,7 +7125,7 @@
         <v>43751</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C310">
         <v>139</v>
@@ -7148,7 +7145,7 @@
         <v>43751</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C311">
         <v>139</v>
@@ -7168,7 +7165,7 @@
         <v>43751</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C312">
         <v>139</v>
@@ -7188,7 +7185,7 @@
         <v>43751</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C313">
         <v>139</v>
@@ -7208,7 +7205,7 @@
         <v>43751</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C314">
         <v>139</v>
@@ -7228,7 +7225,7 @@
         <v>43751</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C315">
         <v>139</v>
@@ -7248,7 +7245,7 @@
         <v>43751</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C316">
         <v>139</v>
@@ -7268,7 +7265,7 @@
         <v>43751</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C317">
         <v>139</v>
@@ -7288,7 +7285,7 @@
         <v>43751</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C318">
         <v>139</v>
@@ -7308,7 +7305,7 @@
         <v>43751</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C319">
         <v>139</v>
@@ -7328,7 +7325,7 @@
         <v>43751</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C320">
         <v>139</v>
@@ -7348,7 +7345,7 @@
         <v>43751</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C321">
         <v>139</v>
@@ -7368,13 +7365,13 @@
         <v>43751</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C322">
         <v>139</v>
       </c>
       <c r="D322" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E322">
         <v>1</v>
@@ -7388,13 +7385,13 @@
         <v>43751</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C323">
         <v>139</v>
       </c>
       <c r="D323" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E323">
         <v>2</v>
@@ -7408,13 +7405,13 @@
         <v>43751</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C324">
         <v>139</v>
       </c>
       <c r="D324" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E324">
         <v>3</v>
@@ -7428,13 +7425,13 @@
         <v>43751</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C325">
         <v>139</v>
       </c>
       <c r="D325" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E325">
         <v>4</v>
@@ -7448,13 +7445,13 @@
         <v>43751</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C326">
         <v>139</v>
       </c>
       <c r="D326" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E326">
         <v>5</v>
@@ -7468,7 +7465,7 @@
         <v>43751</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C327">
         <v>139</v>
@@ -7488,7 +7485,7 @@
         <v>43751</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C328">
         <v>139</v>
@@ -7508,7 +7505,7 @@
         <v>43751</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C329">
         <v>139</v>
@@ -7528,7 +7525,7 @@
         <v>43751</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C330">
         <v>139</v>
@@ -7548,7 +7545,7 @@
         <v>43751</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C331">
         <v>139</v>
@@ -7568,7 +7565,7 @@
         <v>43751</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C332">
         <v>140</v>
@@ -7588,7 +7585,7 @@
         <v>43751</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C333">
         <v>140</v>
@@ -7608,7 +7605,7 @@
         <v>43751</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C334">
         <v>140</v>
@@ -7628,7 +7625,7 @@
         <v>43751</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C335">
         <v>140</v>
@@ -7648,7 +7645,7 @@
         <v>43751</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C336">
         <v>140</v>
@@ -7668,7 +7665,7 @@
         <v>43751</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C337">
         <v>140</v>
@@ -7688,7 +7685,7 @@
         <v>43751</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C338">
         <v>140</v>
@@ -7708,7 +7705,7 @@
         <v>43751</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C339">
         <v>140</v>
@@ -7728,7 +7725,7 @@
         <v>43751</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C340">
         <v>140</v>
@@ -7748,7 +7745,7 @@
         <v>43751</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C341">
         <v>140</v>
@@ -7768,7 +7765,7 @@
         <v>43751</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C342">
         <v>140</v>
@@ -7788,7 +7785,7 @@
         <v>43751</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C343">
         <v>140</v>
@@ -7808,7 +7805,7 @@
         <v>43751</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C344">
         <v>140</v>
@@ -7828,7 +7825,7 @@
         <v>43751</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C345">
         <v>140</v>
@@ -7848,7 +7845,7 @@
         <v>43751</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C346">
         <v>140</v>
@@ -7868,7 +7865,7 @@
         <v>43751</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C347">
         <v>140</v>
@@ -7888,7 +7885,7 @@
         <v>43751</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C348">
         <v>140</v>
@@ -7908,7 +7905,7 @@
         <v>43751</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C349">
         <v>140</v>
@@ -7928,7 +7925,7 @@
         <v>43751</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C350">
         <v>140</v>
@@ -7948,7 +7945,7 @@
         <v>43751</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C351">
         <v>140</v>
@@ -7968,7 +7965,7 @@
         <v>43751</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C352">
         <v>140</v>
@@ -7988,7 +7985,7 @@
         <v>43751</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C353">
         <v>140</v>
@@ -8008,7 +8005,7 @@
         <v>43751</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C354">
         <v>140</v>
@@ -8028,7 +8025,7 @@
         <v>43751</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C355">
         <v>140</v>
@@ -8048,7 +8045,7 @@
         <v>43751</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C356">
         <v>140</v>
@@ -8068,7 +8065,7 @@
         <v>43751</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C357">
         <v>140</v>
@@ -8088,7 +8085,7 @@
         <v>43751</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C358">
         <v>140</v>
@@ -8108,7 +8105,7 @@
         <v>43751</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C359">
         <v>140</v>
@@ -8128,7 +8125,7 @@
         <v>43751</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C360">
         <v>140</v>
@@ -8148,7 +8145,7 @@
         <v>43751</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C361">
         <v>140</v>
@@ -8168,7 +8165,7 @@
         <v>43751</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C362">
         <v>140</v>
@@ -8188,7 +8185,7 @@
         <v>43751</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C363">
         <v>140</v>
@@ -8208,7 +8205,7 @@
         <v>43751</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C364">
         <v>140</v>
@@ -8228,7 +8225,7 @@
         <v>43751</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C365">
         <v>140</v>
@@ -8248,7 +8245,7 @@
         <v>43751</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C366">
         <v>140</v>
@@ -8268,7 +8265,7 @@
         <v>43751</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C367">
         <v>140</v>
@@ -8288,7 +8285,7 @@
         <v>43751</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C368">
         <v>140</v>
@@ -8308,7 +8305,7 @@
         <v>43751</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C369">
         <v>140</v>
@@ -8328,7 +8325,7 @@
         <v>43751</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C370">
         <v>140</v>
@@ -8348,7 +8345,7 @@
         <v>43751</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C371">
         <v>140</v>
@@ -8368,7 +8365,7 @@
         <v>43751</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C372">
         <v>140</v>
@@ -8388,7 +8385,7 @@
         <v>43751</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C373">
         <v>140</v>
@@ -8408,7 +8405,7 @@
         <v>43751</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C374">
         <v>140</v>
@@ -8428,7 +8425,7 @@
         <v>43751</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C375">
         <v>140</v>
@@ -8448,7 +8445,7 @@
         <v>43751</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C376">
         <v>140</v>
@@ -8468,7 +8465,7 @@
         <v>43751</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C377">
         <v>140</v>
@@ -8488,7 +8485,7 @@
         <v>43751</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C378">
         <v>140</v>
@@ -8508,7 +8505,7 @@
         <v>43751</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C379">
         <v>140</v>
@@ -8528,7 +8525,7 @@
         <v>43751</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C380">
         <v>140</v>
@@ -8548,7 +8545,7 @@
         <v>43751</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C381">
         <v>140</v>
@@ -8568,7 +8565,7 @@
         <v>43753</v>
       </c>
       <c r="B382" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C382">
         <v>145</v>
@@ -8588,7 +8585,7 @@
         <v>43753</v>
       </c>
       <c r="B383" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C383">
         <v>145</v>
@@ -8608,7 +8605,7 @@
         <v>43753</v>
       </c>
       <c r="B384" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C384">
         <v>145</v>
@@ -8628,7 +8625,7 @@
         <v>43753</v>
       </c>
       <c r="B385" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C385">
         <v>145</v>
@@ -8648,7 +8645,7 @@
         <v>43753</v>
       </c>
       <c r="B386" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C386">
         <v>145</v>
@@ -8668,7 +8665,7 @@
         <v>43753</v>
       </c>
       <c r="B387" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C387">
         <v>145</v>
@@ -8688,7 +8685,7 @@
         <v>43753</v>
       </c>
       <c r="B388" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C388">
         <v>145</v>
@@ -8708,7 +8705,7 @@
         <v>43753</v>
       </c>
       <c r="B389" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C389">
         <v>145</v>
@@ -8728,7 +8725,7 @@
         <v>43753</v>
       </c>
       <c r="B390" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C390">
         <v>145</v>
@@ -8748,7 +8745,7 @@
         <v>43753</v>
       </c>
       <c r="B391" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C391">
         <v>145</v>
@@ -8768,7 +8765,7 @@
         <v>43753</v>
       </c>
       <c r="B392" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C392">
         <v>145</v>
@@ -8788,7 +8785,7 @@
         <v>43753</v>
       </c>
       <c r="B393" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C393">
         <v>145</v>
@@ -8808,7 +8805,7 @@
         <v>43753</v>
       </c>
       <c r="B394" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C394">
         <v>145</v>
@@ -8828,7 +8825,7 @@
         <v>43753</v>
       </c>
       <c r="B395" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C395">
         <v>145</v>
@@ -8848,7 +8845,7 @@
         <v>43753</v>
       </c>
       <c r="B396" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C396">
         <v>145</v>
@@ -8868,7 +8865,7 @@
         <v>43753</v>
       </c>
       <c r="B397" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C397">
         <v>145</v>
@@ -8888,7 +8885,7 @@
         <v>43753</v>
       </c>
       <c r="B398" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C398">
         <v>145</v>
@@ -8908,7 +8905,7 @@
         <v>43753</v>
       </c>
       <c r="B399" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C399">
         <v>145</v>
@@ -8928,7 +8925,7 @@
         <v>43753</v>
       </c>
       <c r="B400" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C400">
         <v>145</v>
@@ -8948,7 +8945,7 @@
         <v>43753</v>
       </c>
       <c r="B401" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C401">
         <v>145</v>
@@ -8968,7 +8965,7 @@
         <v>43753</v>
       </c>
       <c r="B402" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C402">
         <v>145</v>
@@ -8988,7 +8985,7 @@
         <v>43753</v>
       </c>
       <c r="B403" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C403">
         <v>145</v>
@@ -9008,7 +9005,7 @@
         <v>43753</v>
       </c>
       <c r="B404" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C404">
         <v>145</v>
@@ -9028,7 +9025,7 @@
         <v>43753</v>
       </c>
       <c r="B405" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C405">
         <v>145</v>
@@ -9048,7 +9045,7 @@
         <v>43753</v>
       </c>
       <c r="B406" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C406">
         <v>145</v>
@@ -9068,7 +9065,7 @@
         <v>43753</v>
       </c>
       <c r="B407" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C407">
         <v>145</v>
@@ -9080,7 +9077,7 @@
         <v>1</v>
       </c>
       <c r="F407" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G407" t="s">
         <v>112</v>
@@ -9091,7 +9088,7 @@
         <v>43753</v>
       </c>
       <c r="B408" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C408">
         <v>145</v>
@@ -9111,7 +9108,7 @@
         <v>43753</v>
       </c>
       <c r="B409" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C409">
         <v>145</v>
@@ -9131,7 +9128,7 @@
         <v>43753</v>
       </c>
       <c r="B410" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C410">
         <v>145</v>
@@ -9151,7 +9148,7 @@
         <v>43753</v>
       </c>
       <c r="B411" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C411">
         <v>145</v>
@@ -9171,7 +9168,7 @@
         <v>43753</v>
       </c>
       <c r="B412" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C412">
         <v>145</v>
@@ -9191,7 +9188,7 @@
         <v>43753</v>
       </c>
       <c r="B413" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C413">
         <v>145</v>
@@ -9211,7 +9208,7 @@
         <v>43753</v>
       </c>
       <c r="B414" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C414">
         <v>145</v>
@@ -9231,7 +9228,7 @@
         <v>43753</v>
       </c>
       <c r="B415" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C415">
         <v>145</v>
@@ -9251,7 +9248,7 @@
         <v>43753</v>
       </c>
       <c r="B416" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C416">
         <v>145</v>
@@ -9271,13 +9268,13 @@
         <v>43753</v>
       </c>
       <c r="B417" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C417">
         <v>145</v>
       </c>
       <c r="D417" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E417">
         <v>1</v>
@@ -9291,13 +9288,13 @@
         <v>43753</v>
       </c>
       <c r="B418" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C418">
         <v>145</v>
       </c>
       <c r="D418" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E418">
         <v>2</v>
@@ -9311,13 +9308,13 @@
         <v>43753</v>
       </c>
       <c r="B419" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C419">
         <v>145</v>
       </c>
       <c r="D419" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E419">
         <v>3</v>
@@ -9331,13 +9328,13 @@
         <v>43753</v>
       </c>
       <c r="B420" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C420">
         <v>145</v>
       </c>
       <c r="D420" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E420">
         <v>4</v>
@@ -9351,13 +9348,13 @@
         <v>43753</v>
       </c>
       <c r="B421" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C421">
         <v>145</v>
       </c>
       <c r="D421" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E421">
         <v>5</v>
@@ -9371,7 +9368,7 @@
         <v>43753</v>
       </c>
       <c r="B422" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C422">
         <v>145</v>
@@ -9391,7 +9388,7 @@
         <v>43753</v>
       </c>
       <c r="B423" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C423">
         <v>145</v>
@@ -9411,7 +9408,7 @@
         <v>43753</v>
       </c>
       <c r="B424" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C424">
         <v>145</v>
@@ -9431,7 +9428,7 @@
         <v>43753</v>
       </c>
       <c r="B425" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C425">
         <v>145</v>
@@ -9451,7 +9448,7 @@
         <v>43753</v>
       </c>
       <c r="B426" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C426">
         <v>145</v>
@@ -9471,7 +9468,7 @@
         <v>43753</v>
       </c>
       <c r="B427" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C427">
         <v>146</v>
@@ -9491,7 +9488,7 @@
         <v>43753</v>
       </c>
       <c r="B428" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C428">
         <v>146</v>
@@ -9511,7 +9508,7 @@
         <v>43753</v>
       </c>
       <c r="B429" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C429">
         <v>146</v>
@@ -9531,7 +9528,7 @@
         <v>43753</v>
       </c>
       <c r="B430" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C430">
         <v>146</v>
@@ -9551,7 +9548,7 @@
         <v>43753</v>
       </c>
       <c r="B431" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C431">
         <v>146</v>
@@ -9571,7 +9568,7 @@
         <v>43753</v>
       </c>
       <c r="B432" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C432">
         <v>146</v>
@@ -9591,7 +9588,7 @@
         <v>43753</v>
       </c>
       <c r="B433" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C433">
         <v>146</v>
@@ -9611,7 +9608,7 @@
         <v>43753</v>
       </c>
       <c r="B434" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C434">
         <v>146</v>
@@ -9631,7 +9628,7 @@
         <v>43753</v>
       </c>
       <c r="B435" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C435">
         <v>146</v>
@@ -9651,7 +9648,7 @@
         <v>43753</v>
       </c>
       <c r="B436" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C436">
         <v>146</v>
@@ -9671,7 +9668,7 @@
         <v>43753</v>
       </c>
       <c r="B437" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C437">
         <v>146</v>
@@ -9691,7 +9688,7 @@
         <v>43753</v>
       </c>
       <c r="B438" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C438">
         <v>146</v>
@@ -9711,7 +9708,7 @@
         <v>43753</v>
       </c>
       <c r="B439" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C439">
         <v>146</v>
@@ -9731,7 +9728,7 @@
         <v>43753</v>
       </c>
       <c r="B440" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C440">
         <v>146</v>
@@ -9751,7 +9748,7 @@
         <v>43753</v>
       </c>
       <c r="B441" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C441">
         <v>146</v>
@@ -9771,7 +9768,7 @@
         <v>43753</v>
       </c>
       <c r="B442" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C442">
         <v>146</v>
@@ -9791,7 +9788,7 @@
         <v>43753</v>
       </c>
       <c r="B443" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C443">
         <v>146</v>
@@ -9811,7 +9808,7 @@
         <v>43753</v>
       </c>
       <c r="B444" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C444">
         <v>146</v>
@@ -9831,7 +9828,7 @@
         <v>43753</v>
       </c>
       <c r="B445" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C445">
         <v>146</v>
@@ -9851,7 +9848,7 @@
         <v>43753</v>
       </c>
       <c r="B446" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C446">
         <v>146</v>
@@ -9871,7 +9868,7 @@
         <v>43753</v>
       </c>
       <c r="B447" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C447">
         <v>146</v>
@@ -9891,7 +9888,7 @@
         <v>43753</v>
       </c>
       <c r="B448" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C448">
         <v>146</v>
@@ -9911,7 +9908,7 @@
         <v>43753</v>
       </c>
       <c r="B449" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C449">
         <v>146</v>
@@ -9931,7 +9928,7 @@
         <v>43753</v>
       </c>
       <c r="B450" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C450">
         <v>146</v>
@@ -9951,7 +9948,7 @@
         <v>43753</v>
       </c>
       <c r="B451" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C451">
         <v>146</v>
@@ -9971,7 +9968,7 @@
         <v>43753</v>
       </c>
       <c r="B452" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C452">
         <v>146</v>
@@ -9991,7 +9988,7 @@
         <v>43753</v>
       </c>
       <c r="B453" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C453">
         <v>146</v>
@@ -10011,7 +10008,7 @@
         <v>43753</v>
       </c>
       <c r="B454" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C454">
         <v>146</v>
@@ -10031,7 +10028,7 @@
         <v>43753</v>
       </c>
       <c r="B455" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C455">
         <v>146</v>
@@ -10051,7 +10048,7 @@
         <v>43753</v>
       </c>
       <c r="B456" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C456">
         <v>146</v>
@@ -10071,7 +10068,7 @@
         <v>43753</v>
       </c>
       <c r="B457" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C457">
         <v>146</v>
@@ -10091,7 +10088,7 @@
         <v>43753</v>
       </c>
       <c r="B458" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C458">
         <v>146</v>
@@ -10111,7 +10108,7 @@
         <v>43753</v>
       </c>
       <c r="B459" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C459">
         <v>146</v>
@@ -10131,7 +10128,7 @@
         <v>43753</v>
       </c>
       <c r="B460" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C460">
         <v>146</v>
@@ -10151,7 +10148,7 @@
         <v>43753</v>
       </c>
       <c r="B461" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C461">
         <v>146</v>
@@ -10171,7 +10168,7 @@
         <v>43753</v>
       </c>
       <c r="B462" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C462">
         <v>146</v>
@@ -10191,7 +10188,7 @@
         <v>43753</v>
       </c>
       <c r="B463" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C463">
         <v>146</v>
@@ -10211,7 +10208,7 @@
         <v>43753</v>
       </c>
       <c r="B464" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C464">
         <v>146</v>
@@ -10231,7 +10228,7 @@
         <v>43753</v>
       </c>
       <c r="B465" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C465">
         <v>146</v>
@@ -10251,7 +10248,7 @@
         <v>43753</v>
       </c>
       <c r="B466" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C466">
         <v>146</v>
@@ -10271,7 +10268,7 @@
         <v>43753</v>
       </c>
       <c r="B467" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C467">
         <v>146</v>
@@ -10291,7 +10288,7 @@
         <v>43753</v>
       </c>
       <c r="B468" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C468">
         <v>146</v>
@@ -10311,7 +10308,7 @@
         <v>43753</v>
       </c>
       <c r="B469" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C469">
         <v>146</v>
@@ -10331,7 +10328,7 @@
         <v>43753</v>
       </c>
       <c r="B470" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C470">
         <v>146</v>
@@ -10351,7 +10348,7 @@
         <v>43753</v>
       </c>
       <c r="B471" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C471">
         <v>146</v>
@@ -10371,7 +10368,7 @@
         <v>43753</v>
       </c>
       <c r="B472" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C472">
         <v>146</v>
@@ -10391,7 +10388,7 @@
         <v>43753</v>
       </c>
       <c r="B473" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C473">
         <v>146</v>
@@ -10411,7 +10408,7 @@
         <v>43753</v>
       </c>
       <c r="B474" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C474">
         <v>146</v>
@@ -10431,7 +10428,7 @@
         <v>43753</v>
       </c>
       <c r="B475" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C475">
         <v>146</v>
@@ -10451,7 +10448,7 @@
         <v>43753</v>
       </c>
       <c r="B476" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C476">
         <v>146</v>
@@ -10471,7 +10468,7 @@
         <v>43755</v>
       </c>
       <c r="B477" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C477">
         <v>148</v>
@@ -10486,7 +10483,7 @@
         <v>101</v>
       </c>
       <c r="H477" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="478" spans="1:8" x14ac:dyDescent="0.2">
@@ -10494,7 +10491,7 @@
         <v>43755</v>
       </c>
       <c r="B478" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C478">
         <v>148</v>
@@ -10506,7 +10503,7 @@
         <v>2</v>
       </c>
       <c r="F478" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="479" spans="1:8" x14ac:dyDescent="0.2">
@@ -10514,7 +10511,7 @@
         <v>43755</v>
       </c>
       <c r="B479" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C479">
         <v>148</v>
@@ -10526,7 +10523,7 @@
         <v>3</v>
       </c>
       <c r="F479" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="480" spans="1:8" x14ac:dyDescent="0.2">
@@ -10534,7 +10531,7 @@
         <v>43755</v>
       </c>
       <c r="B480" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C480">
         <v>148</v>
@@ -10554,7 +10551,7 @@
         <v>43755</v>
       </c>
       <c r="B481" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C481">
         <v>148</v>
@@ -10566,7 +10563,7 @@
         <v>5</v>
       </c>
       <c r="F481" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.2">
@@ -10574,7 +10571,7 @@
         <v>43755</v>
       </c>
       <c r="B482" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C482">
         <v>148</v>
@@ -10594,7 +10591,7 @@
         <v>43755</v>
       </c>
       <c r="B483" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C483">
         <v>148</v>
@@ -10614,7 +10611,7 @@
         <v>43755</v>
       </c>
       <c r="B484" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C484">
         <v>148</v>
@@ -10634,7 +10631,7 @@
         <v>43755</v>
       </c>
       <c r="B485" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C485">
         <v>148</v>
@@ -10654,7 +10651,7 @@
         <v>43755</v>
       </c>
       <c r="B486" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C486">
         <v>148</v>
@@ -10674,7 +10671,7 @@
         <v>43755</v>
       </c>
       <c r="B487" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C487">
         <v>148</v>
@@ -10694,7 +10691,7 @@
         <v>43755</v>
       </c>
       <c r="B488" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C488">
         <v>148</v>
@@ -10714,7 +10711,7 @@
         <v>43755</v>
       </c>
       <c r="B489" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C489">
         <v>148</v>
@@ -10734,7 +10731,7 @@
         <v>43755</v>
       </c>
       <c r="B490" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C490">
         <v>148</v>
@@ -10754,7 +10751,7 @@
         <v>43755</v>
       </c>
       <c r="B491" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C491">
         <v>148</v>
@@ -10774,7 +10771,7 @@
         <v>43755</v>
       </c>
       <c r="B492" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C492">
         <v>148</v>
@@ -10786,7 +10783,7 @@
         <v>1</v>
       </c>
       <c r="F492" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.2">
@@ -10794,7 +10791,7 @@
         <v>43755</v>
       </c>
       <c r="B493" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C493">
         <v>148</v>
@@ -10814,7 +10811,7 @@
         <v>43755</v>
       </c>
       <c r="B494" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C494">
         <v>148</v>
@@ -10834,7 +10831,7 @@
         <v>43755</v>
       </c>
       <c r="B495" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C495">
         <v>148</v>
@@ -10854,7 +10851,7 @@
         <v>43755</v>
       </c>
       <c r="B496" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C496">
         <v>148</v>
@@ -10874,7 +10871,7 @@
         <v>43755</v>
       </c>
       <c r="B497" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C497">
         <v>148</v>
@@ -10894,7 +10891,7 @@
         <v>43755</v>
       </c>
       <c r="B498" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C498">
         <v>148</v>
@@ -10914,7 +10911,7 @@
         <v>43755</v>
       </c>
       <c r="B499" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C499">
         <v>148</v>
@@ -10934,7 +10931,7 @@
         <v>43755</v>
       </c>
       <c r="B500" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C500">
         <v>148</v>
@@ -10949,7 +10946,7 @@
         <v>3</v>
       </c>
       <c r="G500" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="501" spans="1:7" x14ac:dyDescent="0.2">
@@ -10957,7 +10954,7 @@
         <v>43755</v>
       </c>
       <c r="B501" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C501">
         <v>148</v>
@@ -10977,7 +10974,7 @@
         <v>43755</v>
       </c>
       <c r="B502" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C502">
         <v>148</v>
@@ -10997,7 +10994,7 @@
         <v>43755</v>
       </c>
       <c r="B503" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C503">
         <v>148</v>
@@ -11017,7 +11014,7 @@
         <v>43755</v>
       </c>
       <c r="B504" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C504">
         <v>148</v>
@@ -11037,7 +11034,7 @@
         <v>43755</v>
       </c>
       <c r="B505" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C505">
         <v>148</v>
@@ -11057,7 +11054,7 @@
         <v>43755</v>
       </c>
       <c r="B506" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C506">
         <v>148</v>
@@ -11069,7 +11066,7 @@
         <v>5</v>
       </c>
       <c r="F506" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="507" spans="1:7" x14ac:dyDescent="0.2">
@@ -11077,7 +11074,7 @@
         <v>43755</v>
       </c>
       <c r="B507" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C507">
         <v>147</v>
@@ -11097,7 +11094,7 @@
         <v>43755</v>
       </c>
       <c r="B508" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C508">
         <v>147</v>
@@ -11117,7 +11114,7 @@
         <v>43755</v>
       </c>
       <c r="B509" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C509">
         <v>147</v>
@@ -11137,7 +11134,7 @@
         <v>43755</v>
       </c>
       <c r="B510" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C510">
         <v>147</v>
@@ -11157,7 +11154,7 @@
         <v>43755</v>
       </c>
       <c r="B511" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C511">
         <v>147</v>
@@ -11177,7 +11174,7 @@
         <v>43755</v>
       </c>
       <c r="B512" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C512">
         <v>148</v>
@@ -11197,7 +11194,7 @@
         <v>43755</v>
       </c>
       <c r="B513" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C513">
         <v>148</v>
@@ -11209,7 +11206,7 @@
         <v>2</v>
       </c>
       <c r="F513" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.2">
@@ -11217,7 +11214,7 @@
         <v>43755</v>
       </c>
       <c r="B514" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C514">
         <v>148</v>
@@ -11237,7 +11234,7 @@
         <v>43755</v>
       </c>
       <c r="B515" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C515">
         <v>148</v>
@@ -11257,7 +11254,7 @@
         <v>43755</v>
       </c>
       <c r="B516" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C516">
         <v>148</v>
@@ -11277,7 +11274,7 @@
         <v>43755</v>
       </c>
       <c r="B517" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C517">
         <v>148</v>
@@ -11297,7 +11294,7 @@
         <v>43755</v>
       </c>
       <c r="B518" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C518">
         <v>148</v>
@@ -11309,7 +11306,7 @@
         <v>2</v>
       </c>
       <c r="F518" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.2">
@@ -11317,7 +11314,7 @@
         <v>43755</v>
       </c>
       <c r="B519" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C519">
         <v>148</v>
@@ -11329,7 +11326,7 @@
         <v>3</v>
       </c>
       <c r="F519" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.2">
@@ -11337,7 +11334,7 @@
         <v>43755</v>
       </c>
       <c r="B520" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C520">
         <v>148</v>
@@ -11357,7 +11354,7 @@
         <v>43755</v>
       </c>
       <c r="B521" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C521">
         <v>148</v>
@@ -11377,7 +11374,7 @@
         <v>43755</v>
       </c>
       <c r="B522" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C522">
         <v>148</v>
@@ -11397,7 +11394,7 @@
         <v>43755</v>
       </c>
       <c r="B523" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C523">
         <v>148</v>
@@ -11417,7 +11414,7 @@
         <v>43755</v>
       </c>
       <c r="B524" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C524">
         <v>148</v>
@@ -11437,7 +11434,7 @@
         <v>43755</v>
       </c>
       <c r="B525" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C525">
         <v>148</v>
@@ -11457,7 +11454,7 @@
         <v>43755</v>
       </c>
       <c r="B526" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C526">
         <v>148</v>
@@ -11477,7 +11474,7 @@
         <v>43755</v>
       </c>
       <c r="B527" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C527">
         <v>148</v>
@@ -11489,7 +11486,7 @@
         <v>1</v>
       </c>
       <c r="F527" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="528" spans="1:6" x14ac:dyDescent="0.2">
@@ -11497,7 +11494,7 @@
         <v>43755</v>
       </c>
       <c r="B528" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C528">
         <v>148</v>
@@ -11517,7 +11514,7 @@
         <v>43755</v>
       </c>
       <c r="B529" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C529">
         <v>148</v>
@@ -11537,7 +11534,7 @@
         <v>43755</v>
       </c>
       <c r="B530" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C530">
         <v>148</v>
@@ -11557,7 +11554,7 @@
         <v>43755</v>
       </c>
       <c r="B531" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C531">
         <v>148</v>
@@ -11569,7 +11566,7 @@
         <v>5</v>
       </c>
       <c r="F531" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.2">
@@ -11577,13 +11574,13 @@
         <v>43755</v>
       </c>
       <c r="B532" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C532">
         <v>147</v>
       </c>
       <c r="D532" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E532">
         <v>1</v>
@@ -11597,13 +11594,13 @@
         <v>43755</v>
       </c>
       <c r="B533" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C533">
         <v>147</v>
       </c>
       <c r="D533" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E533">
         <v>2</v>
@@ -11617,13 +11614,13 @@
         <v>43755</v>
       </c>
       <c r="B534" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C534">
         <v>147</v>
       </c>
       <c r="D534" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E534">
         <v>3</v>
@@ -11637,13 +11634,13 @@
         <v>43755</v>
       </c>
       <c r="B535" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C535">
         <v>147</v>
       </c>
       <c r="D535" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E535">
         <v>4</v>
@@ -11657,13 +11654,13 @@
         <v>43755</v>
       </c>
       <c r="B536" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C536">
         <v>147</v>
       </c>
       <c r="D536" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E536">
         <v>5</v>
@@ -11677,7 +11674,7 @@
         <v>43755</v>
       </c>
       <c r="B537" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C537">
         <v>147</v>
@@ -11689,7 +11686,7 @@
         <v>1</v>
       </c>
       <c r="F537" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.2">
@@ -11697,7 +11694,7 @@
         <v>43755</v>
       </c>
       <c r="B538" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C538">
         <v>147</v>
@@ -11709,7 +11706,7 @@
         <v>2</v>
       </c>
       <c r="F538" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.2">
@@ -11717,7 +11714,7 @@
         <v>43755</v>
       </c>
       <c r="B539" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C539">
         <v>147</v>
@@ -11737,7 +11734,7 @@
         <v>43755</v>
       </c>
       <c r="B540" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C540">
         <v>147</v>
@@ -11749,7 +11746,7 @@
         <v>4</v>
       </c>
       <c r="F540" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.2">
@@ -11757,7 +11754,7 @@
         <v>43755</v>
       </c>
       <c r="B541" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C541">
         <v>147</v>
@@ -11769,7 +11766,7 @@
         <v>5</v>
       </c>
       <c r="F541" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
     </row>
     <row r="542" spans="1:6" x14ac:dyDescent="0.2">
@@ -11777,7 +11774,7 @@
         <v>43755</v>
       </c>
       <c r="B542" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C542">
         <v>147</v>
@@ -11797,7 +11794,7 @@
         <v>43755</v>
       </c>
       <c r="B543" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C543">
         <v>147</v>
@@ -11809,7 +11806,7 @@
         <v>2</v>
       </c>
       <c r="F543" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="544" spans="1:6" x14ac:dyDescent="0.2">
@@ -11817,7 +11814,7 @@
         <v>43755</v>
       </c>
       <c r="B544" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C544">
         <v>147</v>
@@ -11837,7 +11834,7 @@
         <v>43755</v>
       </c>
       <c r="B545" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C545">
         <v>147</v>
@@ -11849,7 +11846,7 @@
         <v>4</v>
       </c>
       <c r="F545" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="546" spans="1:6" x14ac:dyDescent="0.2">
@@ -11857,7 +11854,7 @@
         <v>43755</v>
       </c>
       <c r="B546" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C546">
         <v>147</v>
@@ -11877,7 +11874,7 @@
         <v>43755</v>
       </c>
       <c r="B547" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C547">
         <v>147</v>
@@ -11889,7 +11886,7 @@
         <v>1</v>
       </c>
       <c r="F547" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="548" spans="1:6" x14ac:dyDescent="0.2">
@@ -11897,7 +11894,7 @@
         <v>43755</v>
       </c>
       <c r="B548" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C548">
         <v>147</v>
@@ -11917,7 +11914,7 @@
         <v>43755</v>
       </c>
       <c r="B549" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C549">
         <v>147</v>
@@ -11937,7 +11934,7 @@
         <v>43755</v>
       </c>
       <c r="B550" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C550">
         <v>147</v>
@@ -11949,7 +11946,7 @@
         <v>4</v>
       </c>
       <c r="F550" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="551" spans="1:6" x14ac:dyDescent="0.2">
@@ -11957,7 +11954,7 @@
         <v>43755</v>
       </c>
       <c r="B551" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C551">
         <v>147</v>
@@ -11977,7 +11974,7 @@
         <v>43755</v>
       </c>
       <c r="B552" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C552">
         <v>147</v>
@@ -11997,7 +11994,7 @@
         <v>43755</v>
       </c>
       <c r="B553" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C553">
         <v>147</v>
@@ -12017,7 +12014,7 @@
         <v>43755</v>
       </c>
       <c r="B554" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C554">
         <v>147</v>
@@ -12037,7 +12034,7 @@
         <v>43755</v>
       </c>
       <c r="B555" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C555">
         <v>147</v>
@@ -12057,7 +12054,7 @@
         <v>43755</v>
       </c>
       <c r="B556" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C556">
         <v>147</v>
@@ -12077,7 +12074,7 @@
         <v>43755</v>
       </c>
       <c r="B557" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C557">
         <v>147</v>
@@ -12097,7 +12094,7 @@
         <v>43755</v>
       </c>
       <c r="B558" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C558">
         <v>147</v>
@@ -12117,7 +12114,7 @@
         <v>43755</v>
       </c>
       <c r="B559" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C559">
         <v>147</v>
@@ -12137,7 +12134,7 @@
         <v>43755</v>
       </c>
       <c r="B560" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C560">
         <v>147</v>
@@ -12157,7 +12154,7 @@
         <v>43755</v>
       </c>
       <c r="B561" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C561">
         <v>147</v>
@@ -12177,7 +12174,7 @@
         <v>43755</v>
       </c>
       <c r="B562" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C562">
         <v>147</v>
@@ -12197,7 +12194,7 @@
         <v>43755</v>
       </c>
       <c r="B563" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C563">
         <v>147</v>
@@ -12209,7 +12206,7 @@
         <v>2</v>
       </c>
       <c r="F563" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="564" spans="1:6" x14ac:dyDescent="0.2">
@@ -12217,7 +12214,7 @@
         <v>43755</v>
       </c>
       <c r="B564" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C564">
         <v>147</v>
@@ -12237,7 +12234,7 @@
         <v>43755</v>
       </c>
       <c r="B565" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C565">
         <v>147</v>
@@ -12257,7 +12254,7 @@
         <v>43755</v>
       </c>
       <c r="B566" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C566">
         <v>147</v>
@@ -12277,7 +12274,7 @@
         <v>43755</v>
       </c>
       <c r="B567" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C567">
         <v>147</v>
@@ -12289,7 +12286,7 @@
         <v>1</v>
       </c>
       <c r="F567" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="568" spans="1:6" x14ac:dyDescent="0.2">
@@ -12297,7 +12294,7 @@
         <v>43755</v>
       </c>
       <c r="B568" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C568">
         <v>147</v>
@@ -12317,7 +12314,7 @@
         <v>43755</v>
       </c>
       <c r="B569" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C569">
         <v>147</v>
@@ -12337,7 +12334,7 @@
         <v>43755</v>
       </c>
       <c r="B570" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C570">
         <v>147</v>
@@ -12357,7 +12354,7 @@
         <v>43755</v>
       </c>
       <c r="B571" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C571">
         <v>147</v>
